--- a/story/Main Story and Others 主线剧情等/Operator Record 干员密录/story_sidero_1_1.xlsx
+++ b/story/Main Story and Others 主线剧情等/Operator Record 干员密录/story_sidero_1_1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="979">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="1309">
   <si>
     <t>zh_CN</t>
   </si>
@@ -1336,6 +1336,1326 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">[name="シデロカ"]  もしもし。もしもし、聞こえますか？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シデロカ"]  お久しぶりです、会長様。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シデロカ"]  あなたが来訪したと聞き、僭越ながら連絡させていただきました。ご休憩のお邪魔になっていなければいいのですが……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シデロカ"]  はい……はい。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シデロカ"]  両親の商いはあなたのお陰で赤字を免れることができました。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シデロカ"]  ご存知の通り、コリニア人が最も恐れているものは損失ですので。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シデロカ"]  ……私、ですか？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シデロカ"]  ええ、お陰様でとても元気にしております。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シデロカ"]  それで……会長様さえよろしければ、ご一緒に食事でもできたら嬉しいのですが……いかがでしょう？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シデロカ"]  ……はい。明後日ですね。わかりました。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シデロカ"]  ……ええ、私の方は問題ありません。むしろ、ようやく会長様と共に食事ができるのですから、楽しみで仕方がないくらいです！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シデロカ"]  ……はい。はい……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シデロカ"]  ……はぁ……普通のお食事、ですか？　でしたら、ロドス艦内の食堂はいかがでしょう？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シデロカ"]  ……えっ？　お口に合わなそう……ですか？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シデロカ"]  ……はい！？　個室のあるお店……あの、それは……少々値が張るのではないかと……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シデロカ"]  ……い、いえ！　私の気が回らないばかりに、申し訳ありません！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シデロカ"]  ……はい、はい。時間は厳守いたします。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シデロカ"]  ……はい！　ありがとうございます、会長様。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シデロカ"]  それでは、失礼します。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シデロカ"]  ……ふぅ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シデロカ"]  知り合ってから随分経つというのに、会長様は相変わらずだな……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シデロカ"]  その間、こちらは見聞を広められたというのに……はぁ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シデロカ"]  ……ん？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シデロカ"]  何だ？　向こうの方が騒がしいな……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シデロカ"]  ジュナー教官！？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ジュナー"]  ……ん？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ジュナー"]  ああ、こんにちは、シデロカさん……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="バブル"]  はーなーせー！　はーーなーーせーー！！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ジュナー"]  ちゃんと言うことを聞くって約束できるなら放してあげるわ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シデロカ"]  あの……たしかジュナー教官は、ドーベルマン教官と共に任務に出られたはずでは……？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ジュナー"]  んん！？　あ……あー、それね。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ジュナー"]  実は、その……色々と事情があってね。それで急遽行けなくなってしまったのよ……うん。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シデロカ"]  でしたら、私の訓練に付き合ってくれませんか？　実は最近――
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ジュナー"]  えぇっと……ごめんね。この後、用事があるのよ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="バブル"]  うがーっ！　放せ放せはーなーせー！！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シデロカ"]  でしたら、私も同行させてください。必ずお役に立ちますから！　そして、それが済み次第――
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ジュナー"]  いや、ほんとに、すっごく、個人的な、用事なの！　だから、あなたの手を煩わせるわけにはいかないわ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="バブル"]  うがーーーーーっ！！！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ジュナー"]  もう、バブル！　またドクターの手帳に「反省すること」を書き加えられたいの！？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="バブル"]  うぅ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シデロカ"]  あの……何か、お手伝いできることはありますか？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ジュナー"]  ああ、彼女のこと？　そうね――
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="バブル"]  フォルテのお姉ちゃ～ん！　教官がいじめるんだよ～～！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ジュナー"]  バブルったら、訓練中に飛び出してきちゃったのよ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シデロカ"]  訓練……？　訓練があるのですか！？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ジュナー"]  あっ、いや……ゲーム！　そう、ゲームの最中だったの。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ジュナー"]  あなたも知っての通り、この子は気分が昂ぶると全力で走りたがる性分だからね……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ジュナー"]  さっきもこの子を止めてなかったら、ここの壁が吹き飛んじゃうところだったわ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ジュナー"]  はぁ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シデロカ"]  ……ふむ？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="バブル"]  うぅ～～！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ジュナー"]  ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ジュナー"]  あっ！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ジュナー"]  そうだ、シデロカさん！　一つお願いがあるんだけど、聞いてもらえないかしら？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シデロカ"]  伺います。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ジュナー"]  見ての通り、今のバブルって元気が有り余ってるじゃない？　だから発散させる必要があると思うのよ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ジュナー"]  で、シデロカさんは訓練の相手を探していると。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シデロカ"]  ええ、そうですが……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ジュナー"]  だったらバブルはうってつけよ。特に力比べの相手としてはね。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ジュナー"]  単純な力比べなら、教官団ですら敵わないんだから。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="バブル"]  そうだそうだー！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ジュナー"]  それにシデロカさんもなかなかの腕前だし、是非バブルに色々と教えてあげてほしいのよ。だからお願い。この子の訓練に付き合ってあげて。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ジュナー"]  ダメ……かしら？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="バブル"]  えー……ヤダ。教わりたくない。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シデロカ"]  ……では、訓練室の手配をお願いできますか？　教官。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ジュナー"]  それなら既に第六訓練室の使用許可をもらってるわ。そのまま使ってちょうだい。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シデロカ"]  わかりました。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ジュナー"]  それじゃ、今日はバブルのことお願いね。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ジュナー"]  思いっきり訓練してきなさい！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="バブル"]  ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シデロカ"]  こんにちは、バブル。今日は一緒に訓練しよう。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シデロカ"]  うわっ！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="バブル"]  うがーーーーっ！！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シデロカ"]  おい、どこへ行くんだ！？　訓練室は向こうだぞ！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ジュナー"]  良い訓練になることを願ってるわ！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ジュナー"]  ふぅ……二つのトラブルが一気に片付いちゃうなんて、これぞ正しく僥倖ってやつね。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ジュナー"]  さてさて……シデロカ対バブル、その結果はどうなることやら。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45分後
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">第六訓練室
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="バブル"]  驚いたぞ。フォルテのお姉ちゃんって、意外と走れるんだね。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シデロカ"]  君も筋は悪くない。すごい体力じゃないか。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="バブル"]  ふふん！　ボクはサルゴン中走り回ってたんだから当然だぞ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シデロカ"]  そうなのか？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="バブル"]  うん！　ボクはすっごく強いんだ！　だから、ちょっと走ったくらいでへばったりしないんだぞ！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シデロカ"]  そうか。ならば丁度良い。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シデロカ"]  バブル、次は組み手をしよう！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="バブル"]  くみて……？　なにそれ、全然面白くなさそうだぞ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シデロカ"]  組み手とは……そうだな、全力でぶつかり合う訓練のことだ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="バブル"]  んん？　でも、そんなことしたら、フォルテのお姉ちゃんが吹っ飛んじゃうぞ？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シデロカ"]  いいから、まずはやってみろ。きっと受け止められるはずだ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="バブル"]  わかった。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="バブル"]  それじゃ、いっくぞーー！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="バブル"]  ドーン！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シデロカ"]  はぁっ！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シデロカ"]  ……ふぅ、さすがセラトだな。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シデロカ"]  ははっ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="バブル"]  へっ？　あ、あれ？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="バブル"]  ちょ、ちょっと待って！　タイム……タイムだぞ！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シデロカ"]  どうした？　どこか痛めたか？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="バブル"]  ううん、そんなのはしてないぞ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="バブル"]  とにかく、さっきのはナシだ！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="バブル"]  ボク、全力出してなかったし！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シデロカ"]  そうか、わかった。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シデロカ"]  では、もう一度だ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="バブル"]  ふん。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="バブル"]  ここからなら、十分だな。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="バブル"]  うーん……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="バブル"]  ううん、もっと距離が欲しいぞ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="バブル"]  もっと、もーーっと遠くから……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="バブル"]  よーし！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="バブル"]  フォルテのお姉ちゃん、痛くても泣いちゃダメだぞ！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シデロカ"]  ああ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="バブル"]  じゃあ、いくぞ！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="バブル"]  はああーーっ！　えいやーー！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="バブル"]  どっかーん！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シデロカ"]  はああっ！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シデロカ"]  う、ぐ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="バブル"]  力比べなら、ボクは無敵だあ！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シデロカ"]  それはどうか――なっ！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="バブル"]  うぐっ！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="バブル"]  ぐぬぬぬぅ～～～！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シデロカ"]  せい、やァ！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="バブル"]  うそぉ！？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="バブル"]  この……負けるもんかー！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="バブル"]  えいやーっ！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="バブル"]  はぁーーっ！　やぁー！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ドン！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シデロカ"]  はぁ……はぁ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シデロカ"]  ジュナー教官の言う通り、力比べであればバブルは最適……いや、尊敬に値する訓練相手になるな。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="バブル"]  そんな……負けた……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="バブル"]  フォ、フォルテのお姉ちゃんはどうしてそんなに力持ちなの！？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シデロカ"]  常に鍛錬しているからな。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シデロカ"]  だから、バブルもたくさん体を動かせば強くなれるはずだ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="バブル"]  ……お姉ちゃんは嘘つきだぞ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="バブル"]  ボクだって毎日走り回ってるけど……あまり強くなってる気がしないぞ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シデロカ"]  だとすれば、方法が間違っているのかもしれないな。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="バブル"]  ねえ、フォルテのお姉ちゃんとケーちゃんのヴァルカンお姉ちゃんが戦ったら、どっちが強いの？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シデロカ"]  ヴァルカンか……それなら、恐らく彼女だろう。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シデロカ"]  ミノスでは、誰も鍛冶屋を敵に回そうとは思わないしな。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="バブル"]  でも、フォルテのお姉ちゃんだってすっごく強いぞ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シデロカ"]  私はまだまだ未熟だ。だからもっと自分を磨いて、より強くならなければならない。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="バブル"]  なら、ボクも強くなりたいぞ！　ケーちゃんに勝ちたい！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シデロカ"]  ケオベに？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="バブル"]  うん！　ケーちゃんは力持ちじゃないのにメチャクチャ強いんだ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="バブル"]  いつか絶対、ケーちゃんを地面に叩きつけてやるぞ！　わうーー！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シデロカ"]  ふふ、それは面白そうだ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="バブル"]  だからボク、特訓したいぞ、特訓！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="バブル"]  さあ、もっとやるぞ、フォルテのお姉ちゃん！　次はボクが勝ってやる！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シデロカ"]  ああ！　やる気があるのなら、とことん付き合おう！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="バブル"]  よーし、特訓だ！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シデロカ"]  うむ、特訓だ！！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2時間後
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="バブル"]  フォ……フォルテのお姉ちゃん……ボク、もうへとへとだぞ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シデロカ"]  何を言っている。限界まで自分を追い詰めてこその訓練だろう。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シデロカ"]  君の意志の強さを私に見せてみろ、バブル！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シデロカ"]  さあ、来い！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="バブル"]  えぇ～……ま、まだやるの～……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シデロカ"]  偉大な戦士は訓練場で倒れたりなどしないぞ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="バブル"]  うぅー……それじゃあ、行く……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="バブル"]  ぞ～……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ぱた……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="バブル"]  も、もう……一歩も……動けない……ぞ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="バブル"]  う～……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シデロカ"]  これは、もっと持久力を鍛える必要がありそうだな。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="バブル"]  へとへとだぁ……部屋に戻って寝たいぞ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シデロカ"]  いいや、駄目だ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="バブル"]  えぇ～っ、なんでぇ……！？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シデロカ"]  ジュナー教官から、今日一日面倒を見るよう任されたんだ。つまり私には責任がある。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シデロカ"]  それに、今寝てしまったら先ほどまでの特訓が全て無駄になってしまうぞ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シデロカ"]  筋肉痛を防ぐためにも、せめてストレッチくらいはするべきだ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="バブル"]  ま、まだ体を動かさないといけないの～！？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="バブル"]  い～～や～～だ～～！！　もう動きたくない～～！！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="バブル"]  うわ～～～～～ん！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シデロカ"]  泣く元気が残っているなら、訓練を続けるぞ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="バブル"]  ヤダ！　ボクは帰って寝る！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シデロカ"]  む――まだ元気があるじゃないか！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シデロカ"]  こら、逃げるな！　戻ってこいバブル！　体力を無駄にするな！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="監視カメラ"]  ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シデロカ"]  くっ……見失った……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シデロカ"]  だが妙だな……筋力と持久力は私の方が有利のはず。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シデロカ"]  それなのに、なぜこうも容易く見失ってしまうんだ？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シデロカ"]  ふむ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シデロカ"]  やはり30時限の関連講義だけでは足りなかったか……今後は追跡技術の訓練を中心に、教官団にご指導頂く必要があるな。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シデロカ"]  こんにちは、スズランさん。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="スズラン"]  こ、こんにちは、シデロカお姉さん。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="バブル"]  （任せたぞ、スズラン！　君と君のしっぽが頼りなんだ！）
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="バブル"]  （ボクのこと、しっかり隠してね！）
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="スズラン"]  （ちょっ、動かないでください、バブル！　バレちゃいますよ！）
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シデロカ"]  先ほど、この辺りでバブルを見ませんでしたか？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="スズラン"]  い、いえ……見てませんけど。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シデロカ"]  おかしいな。ここは行き止まりだし、突然消えるはずが……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="スズラン"]  も、もしかしたら、換気用のダクトを抜けて行っちゃったのかも……なんて……あ、あはは……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シデロカ"]  なるほど、彼女の体型であれば確かに可能ですね。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="バブル"]  （あれ？　スズランのしっぽ、なんで一本だけ揺れてるんだろ？）
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="バブル"]  （……そういえば、嘘をつく時しっぽを揺らす癖を持つ人がいるってパパから聞いたことがあるぞ。あの話って本当だったんだ！）
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="バブル"]  （スズラン、君はなんていい人なんだ！）
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="バブル"]  （で、でも、できれば……ボクの鼻先で揺らすのは……やめてほしい……ぞ。うぅ……くすぐったいぃ……）
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="バブル"]  （ま……まずい……！）
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="バブル"]  （は、は――）
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">っくしゅん！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シデロカ"]  ん？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="スズラン"]  きゃっ！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="スズラン"]  （し、しっぽを掴まないでください～！）
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="スズラン"]  ご、ごめんなさい、シデロカお姉さん……実は、ちょっと風邪を引いちゃいまして。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="スズラン"]  くちゅん。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シデロカ"]  風邪……ですか？　それはさぞお辛いでしょう。医者には診てもらいましたか？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="スズラン"]  その……まだなんです。あまりご迷惑をおかけしたくなくて……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="スズラン"]  ですので、少し休んでから行こうかなと……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シデロカ"]  それはいけません、今すぐ診てもらわないと。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="スズラン"]  だ、大丈夫ですから！　ちょっとだけ……本当にちょっとだけ風邪気味かもって程度ですので。これくらいであれば、自分で医務室に行けます。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="スズラン"]  （ハンカチを取り出して鼻を拭う）
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シデロカ"]  あの……もしかして節約をされているのですか？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="スズラン"]  …………はい？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="スズラン"]  そ、そんなことはありませんよ！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シデロカ"]  ううむ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シデロカ"]  その慌てぶり……やはりそうでしたか。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="バブル"]  （うぇ！？　もしかして気づかれた！？）
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="スズラン"]  （どうしよう……シデロカお姉さん、何か勘違いされてるみたいです……）
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シデロカ"]  お気持ちはわかります。私の故郷にも節約のためと医者に行かず、病で命を落とした人が大勢いましたから……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シデロカ"]  ですが、あなたはまだ幼い。そんな子に苦労などさせるわけにはいきません。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シデロカ"]  診療代が払えないのであれば、私が代わりにお支払いします。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="バブル"]  （な、なに言ってるんだ？　このフォルテのお姉ちゃん……）
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="スズラン"]  いえいえいえ！　本当に……本当に大丈夫ですから！　それに、ロドスはオペレーターを無料で診察してくれますし……きゃっ！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="バブル"]  （しまった！　今度こそ気づかれた！？）
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="バブル"]  （見えてませんように見えてませんように見えてませんように！）
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シデロカ"]  皆まで言わなくて結構です。すぐ医務室へお連れしますので。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="スズラン"]  え……ええぇぇっ！？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="スズラン"]  ご、誤解です！　誤解ですってば、シデロカお姉さん！　パパとママは毎月生活費を送ってくれてますし、お手紙や写真だって――
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="スズラン"]  お願いですから……話を聞いてくださ～い！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="バブル"]  ふ、ふぅ～……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="バブル"]  もうちょっとで見つかるところだった……けど、スズランのしっぽのおかげで何とかなったぞ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="バブル"]  ごめんねスズラン！　この恩はいつか必ず返すから！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">夜
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">訓練センター入口
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ジュナー"]  で、結局……バブルは消えちゃったと？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シデロカ"]  はい……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シデロカ"]  スズランさんを医務室へ送った後、再び捜索に当たったのですが……どこを探しても見つかりませんでしたので、こうして報告を……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シデロカ"]  これも全て、あの子をちゃんと見ていなかった私の責任です！　申し訳ありません、教官！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シデロカ"]  どうか、私に罰をお与えください！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ジュナー"]  い、いや、そこまでするほどのことじゃ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ジュナー"]  それにバブルなら、今頃部屋で休んでると思うわよ。宿舎の管理人にも確認したし。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ジュナー"]  あんなに大人しいバブルは初めて見たって驚いてたわ。これもきっとあなたのお陰ね、ご苦労様。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シデロカ"]  は、はあ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ジュナー"]  今日はありがとう。他に用がないのなら、あなたも早く部屋に戻って休みなさい。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シデロカ"]  ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シデロカ"]  教官、実は一つ気になっていることがありまして……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ジュナー"]  気になること？　何かしら？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シデロカ"]  教官から見て……私の偵察及び追跡の訓練の出来はどうでしたか？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ジュナー"]  優秀だったわよ、とても。それがどうかしたの？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シデロカ"]  私は、今のままでは不十分だと感じています。人を追跡する際……いつも失敗ばかりしていますので……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シデロカ"]  これはつまり、まだ成長の余地があるということでは？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ジュナー"]  えっ……と……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ジュナー"]  それらの失敗は、極めて特殊なケースよ。いわば例外ってやつね。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ジュナー"]  ほら、普段の生活環境と戦場とではまるで別物だもの。戦場でのあなたの追跡能力には申し分なんてま～～ったくないわ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シデロカ"]  そう……でしょうか。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ジュナー"]  ええ、嘘じゃないわ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シデロカ"]  ……そのお言葉を聞いて、安心しました。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ジュナー"]  うんうん。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シデロカ"]  では、生活環境における偵察及び追跡の訓練を申請させて頂けませんか？　この方面も勉強しておくべきだと思うんです。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ジュナー"]  うんうん……――ん？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ジュナー"]  あ、えーっと、それは、そう……ね。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ジュナー"]  他の教官たちと相談する必要があるし、二、三日ほど時間をちょうだい。そうすれば、あなたにも良い提案ができると思うわ。だから今日は宿舎に戻って休みなさい。もう遅いし……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シデロカ"]  はい。ありがとうございます、教官。では、お先に失礼します！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ジュナー"]  うん、それじゃあね！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ジュナー"]  ……で、あなたはどう思う？　ドーベルマン教官。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ジュナー"]  彼女、薄々勘付いてるみたいよ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ドーベルマン"]  適切なケースを想定して訓練内容を提示すれば、まだ誤魔化しが利く範疇だろう。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ジュナー"]  けど、それにも限界ってものがあるんじゃない？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ドーベルマン"]  ならば……それまでに解決方法を見出すしかないな。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ドーベルマン"]  ……まあ、最も効果的な追跡方法さえ学ばせなければ、こちらにも逃げ道が残されているのは不幸中の幸いだとは思うが……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ジュナー"]  逆に言えば、彼女がそれを知ったが最後、ドクターどころか私たちまで逃げられなくなるってことだけど……ね。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ドーベルマン"]  それで、バブルの方はどうなんだ？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ジュナー"]  監視カメラの映像、確認しておいたわよ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ジュナー"]  あなたにもぜひ見ておくべきだわ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ジュナー"]  帰ってお風呂に入るなり、すぐ部屋に入ったきり出てこないって管理人が言ってたわ。食事さえもルームメイトに運んでもらっていたそうよ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ジュナー"]  少なくとも数日くらいは、「シデロカ」の名前を聞いただけでガクガク震えちゃうんじゃないかしら？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ドーベルマン"]  ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シデロカ"]  教官、お呼びですか？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ジュナー/ドーベルマン"]  ！？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ジュナー"]  ど、どうして戻ってきたの？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シデロカ"]  ドーベルマン教官もいらしたのですか。外勤任務は早くに終わられたのですね。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ドーベルマン"]  あ、ああ……ロドス本艦周辺で訓練に最適な場所を見繕っていただけだからな。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シデロカ"]  それは何よりです！　実は、明日からでも訓練を始められないか、お伺いしたいと思いまして。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ドーベルマン"]  その件についてだが――
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ジュナー"]  待ってね、まずは私とドーベルマン教官で相談しないと。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ドーベルマン"]  （小声）おい、お前の方が機転が利くだろう。なんとかしてくれ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ドーベルマン"]  （小声）……ジュナー？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ジュナー"]  （小声）……実は以前、シデロカさんのことをよく知る人と話したことがあるのだけど……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ジュナー"]  （小声）その時、とても建設的な意見をくれたの。まあ、今のシデロカさんの状態には驚いていたみたいだったけど……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ジュナー"]  （小声）とにかく、私に合わせてちょうだい。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ドーベルマン"]  （小声）ああ、わかった。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ジュナー"]  シデロカさん。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シデロカ"]  はい！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ジュナー"]  実はね。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ジュナー"]  私たち、話し合っているうちに気づいたのだけど……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ジュナー"]  あなたの求めている技術を得るためには、訓練だけでは足りないと思うの。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ドーベルマン"]  （小声）おい、突然何を言い出すんだ！？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ジュナー"]  （小声）いいから！　この場は私に任せて！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シデロカ"]  と、言いますと……？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ジュナー"]  あなたがドクターの護衛の任に就いた時、よくドクターに逃げられてたわよね。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シデロカ"]  うっ……それは……私の不手際です……申し訳ありません！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シデロカ"]  だからこそ、私はもっと――
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ジュナー"]  もっと他の方面からドクターを気にかけてあげないと。違う？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シデロカ"]  はい……？　それは、つまり……？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ジュナー"]  最近のドクターは体調が良くないみたいじゃない？　寝不足に見えるし、食生活も不規則だし、ちょっとした……本当に軽度だけど、慢性的な病気も患ってるみたいだし……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ジュナー"]  戦闘技術の向上はもちろん重要よ？　でも、ドクターの健康を守ってあげるのはそれ以上に重要なことではないかしら？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シデロカ"]  ですが……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ジュナー"]  私の言葉の意味、しっかり考えてみて。おやすみ、シデロカさん。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シデロカ"]  ……おやすみなさい……教官……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ドーベルマン"]  （小声）お前たちクルビア人は全員腹黒なのか？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ジュナー"]  （小声）酷い言い草ね。ちょっと知恵が働くだけよ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ジュナー"]  （小声）ほら、グズグズしてないで行くわよ！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ドーベルマン"]  （小声）しかし、あれが効くとは到底思えんが……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ジュナー"]  （小声）でも、今は考えてくれてるじゃない。その隙にこの場を離れましょう！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ジュナー"]  （小声）また訓練の話でもされたら、間違いなく徹夜コース確定よ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シデロカ"]  ……教官の言う通りだ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シデロカ"]  私は……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シデロカ"]  私は、ドクターに必要なのは護衛だけだと思っていた……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シデロカ"]  ……しかし、それは間違いだった。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シデロカ"]  護衛は雇い主の安全さえ守れればいいと……勘違いしていたんだ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シデロカ"]  本当はもっとしてあげられることがあるはずなのに……それを考えようともしなかった……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シデロカ"]  ああ……そうか……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シデロカ"]  会長様が仰っていたのは、そういうことだったのか！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シデロカ"]  私は食に拘りなどないが……たしかに、たまに贅沢な料理を堪能すれば生活の質は向上するだろう。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シデロカ"]  だと言うのに……私は……せっかく来てくださった会長様に対し……あろうことか食堂の料理を勧めてしまうだなんて……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シデロカ"]  これは間違いなく……私の配慮不足だった……！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シデロカ"]  ドクター、あなたもきっとそう思っていたんだな。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シデロカ"]  ただ、鈍感な私にそれを言うのを躊躇っていただけで……くっ！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シデロカ"]  ……よし、決めたぞ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シデロカ"]  ドクターは、私が救ってみせる！
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">[name="Sideroca"]  Hello? Can you hear me?
 </t>
   </si>
@@ -1584,7 +2904,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Bubble"]  Teach? I don’t wanna.
+    <t xml:space="preserve">[name="Bubble"]  Teach? I don't wanna.
 </t>
   </si>
   <si>
@@ -2672,7 +3992,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="시데로카"]  오케이, 그럼 바로~?
+    <t xml:space="preserve">[name="시데로카"]  네, 네!
 </t>
   </si>
   <si>
@@ -2700,7 +4020,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="시데로카"]  그럼 안녕히.
+    <t xml:space="preserve">[name="시데로카"]  그럼 그때 뵐게요.
 </t>
   </si>
   <si>
@@ -2716,7 +4036,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="시데로카"]  응?
+    <t xml:space="preserve">[name="시데로카"]  으응?
 </t>
   </si>
   <si>
@@ -2784,274 +4104,274 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">[name="버블"]  헙……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="시데로카"]  제가 도울 일이 있을까요?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="듀나"]  이 녀석 말이야?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="버블"]  포르테 언니, 교관님이 나 괴롭혀! 흐아앙!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="듀나"]  훈련하고 있는데 이 녀석이 멋대로 도망쳐 나오는 바람에 그만……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="시데로카"]  훈련? 훈련 중인 건가요?!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="듀나"]  아, 그게…… 일종의 놀이 같은 거야. 그래, 놀던 중이었어.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="듀나"]  너도 알겠지만, 버블은 마구 뛰어다니는 걸 좋아하거든.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="듀나"]  방금도 내가 막지 않았다면, 옆에 있는 벽이 날아갔을 거야.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="듀나"]  으음……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="버블"]  으으으으!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="듀나"]  ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="듀나"]  !
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="듀나"]  시데로카, 한 가지 부탁이 있는데 들어줄 수 있을까?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="시데로카"]  말해 보세요.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="듀나"]  보다시피 버블은 에너지가 넘치는 편이라 그걸 발산해 줘야 하거든.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="듀나"]  마침 시데로카도 훈련 상대가 필요한 것 같으니까.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="시데로카"]  그렇긴 한데……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="듀나"]  힘을 기르는 훈련이라면 버블이 좋은 상대가 되어 줄 거야.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="듀나"]  힘만 놓고 보면 교관들은 버블의 상대가 안 되거든.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="버블"]  맞아, 맞아!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="듀나"]  시데로카도 대단한 실력을 지녔잖아? 버블과 같이 훈련하는 건 어때? 괜찮다면 기술 같은 걸 가르쳐줘도 되고.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="듀나"]  어때?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="버블"]  에~ 배우는 건 싫어!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="시데로카"]  그렇다면 어느 훈련실을 쓸지 알려 주세요.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="듀나"]  제6 훈련실, 말은 이미 해뒀으니 그대로 가서 사용하면 돼.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="시데로카"]  알겠어요.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="듀나"]  그럼, 오늘 버블을 부탁할게.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="듀나"]  훈련 열심히 해!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="버블"]  ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="시데로카"]  안녕, 버블~ 우리 같이 훈련하러 갈까?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="시데로카"]  와아!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="버블"]  우와아아아~!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="시데로카"]  뛰지 마! 훈련실은 저쪽이라고!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="듀나"]  즐거운 시간 보내!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="듀나"]  하아, 이런 걸 두고 일석이조라고 하는 건가?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="듀나"]  버블 대 시데로카…… 어떤 결과가 있을지 기대되는걸?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45분 뒤
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">제6 훈련실
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="버블"]  포르테 언니, 엄청 잘 뛴다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="시데로카"]  너도 꽤 하잖아, 체력이 정말 좋구나.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="버블"]  헤헤, 사르곤에서 내 발길이 안 닿은 곳은 아마 없을걸?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="시데로카"]  그래?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="버블"]  난 엄청 강해, 조금 뛰었다고 지치지 않아!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="시데로카"]  그거 잘됐네.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="시데로카"]  그럼 우리, 근접전 해 볼까?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="버블"]  그게 뭐야? 재미없을 것 같은데.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="시데로카"]  있는 힘껏 내게 달려들어 봐.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="버블"]  그럼 포르테 언니가 날아가 버릴 텐데?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="시데로카"]  일단 해 봐, 버텨 볼 테니까.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="버블"]  알았어.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="버블"]  간~ 다아~!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="버블"]  쾅!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="시데로카"]  흐읍!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="시데로카"]  역시 세라토는 다르네.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="시데로카"]  후후……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="버블"]  엇?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="버블"]  자, 잠깐. 멈춰, 멈추라고!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="시데로카"]  왜 그래, 다친 거야?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="버블"]  아니.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="버블"]  이번은 무효야!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="버블"]  방금은 전력을 다하지 않았다고!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="시데로카"]  알았어.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="시데로카"]  그럼 다시 해 볼까?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="버블"]  흥!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="버블"]  이 정도면 되겠지.
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">[name="버블"]  으음……
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="시데로카"]  제가 도울 일이 있을까요?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="듀나"]  이 녀석 말이야?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="버블"]  포르테 언니, 교관님이 나 괴롭혀! 흐아앙!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="듀나"]  훈련하고 있는데 이 녀석이 멋대로 도망쳐 나오는 바람에 그만……
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="시데로카"]  훈련? 훈련 중인 건가요?!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="듀나"]  아, 그게…… 일종의 놀이 같은 거야. 그래, 놀던 중이었어.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="듀나"]  너도 알겠지만, 버블은 마구 뛰어다니는 걸 좋아하거든.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="듀나"]  방금도 내가 막지 않았다면, 옆에 있는 벽이 날아갔을 거야.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="듀나"]  흐음……
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="버블"]  으으으으!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="듀나"]  ……
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="듀나"]  !
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="듀나"]  시데로카, 한 가지 부탁이 있는데 들어줄 수 있을까?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="시데로카"]  말해 보세요.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="듀나"]  보다시피 버블은 에너지가 넘치는 편이라 그걸 발산해 줘야 하거든.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="듀나"]  마침 시데로카도 훈련 상대가 필요한 것 같으니까.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="시데로카"]  그렇긴 한데……
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="듀나"]  힘을 기르는 훈련이라면 버블이 좋은 상대가 되어 줄 거야.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="듀나"]  힘만 놓고 보면 교관들은 버블의 상대가 안 되거든.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="버블"]  맞아, 맞아!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="듀나"]  시데로카도 대단한 실력을 지녔잖아? 버블과 같이 훈련하는 건 어때? 괜찮다면 기술 같은 걸 가르쳐줘도 되고.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="듀나"]  어때?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="버블"]  에~ 배우는 건 싫어!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="시데로카"]  그렇다면 어느 훈련실을 쓸지 알려 주세요.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="듀나"]  제6 훈련실, 말은 이미 해뒀으니 그대로 가서 사용하면 돼.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="시데로카"]  좋아.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="듀나"]  그럼, 오늘 버블을 부탁할게.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="듀나"]  훈련 열심히 해!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="버블"]  ……
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="시데로카"]  안녕, 버블~ 우리 같이 훈련하러 갈까?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="시데로카"]  와아!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="버블"]  우와아아아~!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="시데로카"]  뛰지 마! 훈련실은 저쪽이라고!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="듀나"]  즐거운 시간 보내!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="듀나"]  하아, 이런 걸 두고 일석이조라고 하는 건가?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="듀나"]  버블 대 시데로카…… 어떤 결과가 있을지 기대되는걸?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45분 뒤
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">제6 훈련실
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="버블"]  포르테 언니, 엄청 잘 뛴다.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="시데로카"]  너도 꽤 하잖아, 체력이 정말 좋구나.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="버블"]  헤헤, 사르곤에서 내 발길이 안 닿은 곳은 아마 없을걸?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="시데로카"]  그런가?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="버블"]  난 엄청 강해, 조금 뛰었다고 지치지 않아!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="시데로카"]  그거 잘됐네.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="시데로카"]  그럼 우리, 근접전 해 볼까?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="버블"]  그게 뭐야? 재미없을 것 같은데.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="시데로카"]  있는 힘껏 내게 달려들어 봐.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="버블"]  그럼 포르테 언니가 날아가 버릴 텐데?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="시데로카"]  일단 해 봐, 버텨 볼 테니까.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="버블"]  알았어.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="버블"]  간~ 다아~!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="버블"]  쾅!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="시데로카"]  흐읍!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="시데로카"]  역시 세라토는 다르네.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="시데로카"]  후후……
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="버블"]  엇?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="버블"]  자, 잠깐. 멈춰, 멈추라고!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="시데로카"]  왜 그래, 다친 거야?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="버블"]  없습니다.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="버블"]  이번은 무효야!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="버블"]  방금은 전력을 다하지 않았다고!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="시데로카"]  알았어.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="시데로카"]  그럼 다시 해 볼까?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="버블"]  하!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="버블"]  이 정도면 되겠지.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="버블"]  흐음……
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">[name="버블"]  조금 더 멀리.
 </t>
   </si>
@@ -3344,7 +4664,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="시데로카"]  흐음……
+    <t xml:space="preserve">[name="시데로카"]  으음……
 </t>
   </si>
   <si>
@@ -3352,10 +4672,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="시데로카"]  흠?
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">[name="시데로카"]  스즈란 아가씨로군, 안녕!
 </t>
   </si>
@@ -3456,7 +4772,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="스즈란"]  괘, 괜찮아요. 그냥 감기일 뿐인 걸요. 정말로 별거 아니니까 걱정 마세요.
+    <t xml:space="preserve">[name="스즈란"]  괘, 괜찮아요. 그냥 감기일 뿐인걸요. 정말로 별거 아니니까 걱정 마세요.
 </t>
   </si>
   <si>
@@ -3520,7 +4836,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="스즈란"]  시데로카 언니! 뭔가 오해하셨나 본데 부모님이 매달 생활비를 보내주세요. 편지도 써 주시고, 사진도 보내 주시니까……
+    <t xml:space="preserve">[name="스즈란"]  에? 에엣?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="스즈란"]  시데로카 언니! 뭔가 오해하셨나 본데 부모님이 매달 생활비를 보내주세요. 편지도 써 주시고, 사진도 보내주시니까……
 </t>
   </si>
   <si>
@@ -3616,7 +4936,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="듀나"]  으윽……
+    <t xml:space="preserve">[name="듀나"]  어…… 그게……
 </t>
   </si>
   <si>
@@ -3836,7 +5156,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="시데로카"]  나, 나는……
+    <t xml:space="preserve">[name="시데로카"]  난……
 </t>
   </si>
   <si>
@@ -3892,7 +5212,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="시데로카"]  어……?
+    <t xml:space="preserve">[name="시데로카"]  아……
 </t>
   </si>
   <si>
@@ -4308,13 +5628,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>331</v>
       </c>
       <c r="C2" t="s">
-        <v>331</v>
+        <v>661</v>
       </c>
       <c r="D2" t="s">
-        <v>654</v>
+        <v>984</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4322,13 +5642,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>332</v>
       </c>
       <c r="C3" t="s">
-        <v>332</v>
+        <v>662</v>
       </c>
       <c r="D3" t="s">
-        <v>655</v>
+        <v>985</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4336,13 +5656,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>333</v>
       </c>
       <c r="C4" t="s">
-        <v>333</v>
+        <v>663</v>
       </c>
       <c r="D4" t="s">
-        <v>656</v>
+        <v>986</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4350,13 +5670,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>334</v>
       </c>
       <c r="C5" t="s">
-        <v>334</v>
+        <v>664</v>
       </c>
       <c r="D5" t="s">
-        <v>657</v>
+        <v>987</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -4364,13 +5684,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
       <c r="C6" t="s">
-        <v>335</v>
+        <v>665</v>
       </c>
       <c r="D6" t="s">
-        <v>658</v>
+        <v>988</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -4378,13 +5698,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>336</v>
       </c>
       <c r="C7" t="s">
-        <v>336</v>
+        <v>666</v>
       </c>
       <c r="D7" t="s">
-        <v>659</v>
+        <v>989</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4392,13 +5712,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>337</v>
       </c>
       <c r="C8" t="s">
-        <v>337</v>
+        <v>667</v>
       </c>
       <c r="D8" t="s">
-        <v>660</v>
+        <v>990</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4406,13 +5726,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>338</v>
       </c>
       <c r="C9" t="s">
-        <v>338</v>
+        <v>668</v>
       </c>
       <c r="D9" t="s">
-        <v>661</v>
+        <v>991</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -4420,13 +5740,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>339</v>
       </c>
       <c r="C10" t="s">
-        <v>339</v>
+        <v>669</v>
       </c>
       <c r="D10" t="s">
-        <v>662</v>
+        <v>992</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -4434,13 +5754,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>340</v>
       </c>
       <c r="C11" t="s">
-        <v>340</v>
+        <v>670</v>
       </c>
       <c r="D11" t="s">
-        <v>663</v>
+        <v>993</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -4448,13 +5768,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>341</v>
       </c>
       <c r="C12" t="s">
-        <v>341</v>
+        <v>671</v>
       </c>
       <c r="D12" t="s">
-        <v>664</v>
+        <v>994</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -4462,13 +5782,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>342</v>
       </c>
       <c r="C13" t="s">
-        <v>342</v>
+        <v>672</v>
       </c>
       <c r="D13" t="s">
-        <v>665</v>
+        <v>995</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -4476,13 +5796,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>343</v>
       </c>
       <c r="C14" t="s">
-        <v>343</v>
+        <v>673</v>
       </c>
       <c r="D14" t="s">
-        <v>666</v>
+        <v>996</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -4490,13 +5810,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>344</v>
       </c>
       <c r="C15" t="s">
-        <v>344</v>
+        <v>674</v>
       </c>
       <c r="D15" t="s">
-        <v>667</v>
+        <v>997</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -4504,13 +5824,13 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>345</v>
       </c>
       <c r="C16" t="s">
-        <v>345</v>
+        <v>675</v>
       </c>
       <c r="D16" t="s">
-        <v>668</v>
+        <v>998</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -4518,13 +5838,13 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>346</v>
       </c>
       <c r="C17" t="s">
-        <v>346</v>
+        <v>676</v>
       </c>
       <c r="D17" t="s">
-        <v>669</v>
+        <v>999</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -4532,13 +5852,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>347</v>
       </c>
       <c r="C18" t="s">
-        <v>347</v>
+        <v>677</v>
       </c>
       <c r="D18" t="s">
-        <v>670</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -4546,13 +5866,13 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>348</v>
       </c>
       <c r="C19" t="s">
-        <v>348</v>
+        <v>678</v>
       </c>
       <c r="D19" t="s">
-        <v>671</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -4560,13 +5880,13 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>349</v>
       </c>
       <c r="C20" t="s">
-        <v>349</v>
+        <v>679</v>
       </c>
       <c r="D20" t="s">
-        <v>672</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -4574,13 +5894,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>350</v>
       </c>
       <c r="C21" t="s">
-        <v>350</v>
+        <v>680</v>
       </c>
       <c r="D21" t="s">
-        <v>673</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -4588,13 +5908,13 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>351</v>
       </c>
       <c r="C22" t="s">
-        <v>351</v>
+        <v>681</v>
       </c>
       <c r="D22" t="s">
-        <v>674</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -4602,13 +5922,13 @@
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>352</v>
       </c>
       <c r="C23" t="s">
-        <v>352</v>
+        <v>682</v>
       </c>
       <c r="D23" t="s">
-        <v>675</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -4616,13 +5936,13 @@
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>353</v>
       </c>
       <c r="C24" t="s">
-        <v>353</v>
+        <v>683</v>
       </c>
       <c r="D24" t="s">
-        <v>676</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -4630,13 +5950,13 @@
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>354</v>
       </c>
       <c r="C25" t="s">
-        <v>354</v>
+        <v>684</v>
       </c>
       <c r="D25" t="s">
-        <v>677</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -4644,13 +5964,13 @@
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
+        <v>355</v>
       </c>
       <c r="C26" t="s">
-        <v>355</v>
+        <v>685</v>
       </c>
       <c r="D26" t="s">
-        <v>678</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -4658,13 +5978,13 @@
         <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>356</v>
       </c>
       <c r="C27" t="s">
-        <v>356</v>
+        <v>686</v>
       </c>
       <c r="D27" t="s">
-        <v>679</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -4672,13 +5992,13 @@
         <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>30</v>
+        <v>357</v>
       </c>
       <c r="C28" t="s">
-        <v>357</v>
+        <v>687</v>
       </c>
       <c r="D28" t="s">
-        <v>680</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -4686,13 +6006,13 @@
         <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>358</v>
       </c>
       <c r="C29" t="s">
-        <v>358</v>
+        <v>688</v>
       </c>
       <c r="D29" t="s">
-        <v>681</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -4700,13 +6020,13 @@
         <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>359</v>
       </c>
       <c r="C30" t="s">
-        <v>359</v>
+        <v>689</v>
       </c>
       <c r="D30" t="s">
-        <v>682</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -4714,13 +6034,13 @@
         <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>33</v>
+        <v>360</v>
       </c>
       <c r="C31" t="s">
-        <v>360</v>
+        <v>690</v>
       </c>
       <c r="D31" t="s">
-        <v>683</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -4728,13 +6048,13 @@
         <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>361</v>
       </c>
       <c r="C32" t="s">
-        <v>361</v>
+        <v>691</v>
       </c>
       <c r="D32" t="s">
-        <v>684</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -4742,13 +6062,13 @@
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>35</v>
+        <v>362</v>
       </c>
       <c r="C33" t="s">
-        <v>362</v>
+        <v>692</v>
       </c>
       <c r="D33" t="s">
-        <v>685</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -4756,13 +6076,13 @@
         <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>36</v>
+        <v>363</v>
       </c>
       <c r="C34" t="s">
-        <v>363</v>
+        <v>693</v>
       </c>
       <c r="D34" t="s">
-        <v>686</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -4770,13 +6090,13 @@
         <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>37</v>
+        <v>364</v>
       </c>
       <c r="C35" t="s">
-        <v>364</v>
+        <v>694</v>
       </c>
       <c r="D35" t="s">
-        <v>687</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -4784,13 +6104,13 @@
         <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>38</v>
+        <v>365</v>
       </c>
       <c r="C36" t="s">
-        <v>365</v>
+        <v>695</v>
       </c>
       <c r="D36" t="s">
-        <v>688</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -4798,13 +6118,13 @@
         <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>39</v>
+        <v>366</v>
       </c>
       <c r="C37" t="s">
-        <v>366</v>
+        <v>696</v>
       </c>
       <c r="D37" t="s">
-        <v>689</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -4812,13 +6132,13 @@
         <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>40</v>
+        <v>367</v>
       </c>
       <c r="C38" t="s">
-        <v>367</v>
+        <v>697</v>
       </c>
       <c r="D38" t="s">
-        <v>690</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -4826,13 +6146,13 @@
         <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>41</v>
+        <v>368</v>
       </c>
       <c r="C39" t="s">
-        <v>368</v>
+        <v>698</v>
       </c>
       <c r="D39" t="s">
-        <v>691</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -4840,13 +6160,13 @@
         <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>42</v>
+        <v>369</v>
       </c>
       <c r="C40" t="s">
-        <v>369</v>
+        <v>699</v>
       </c>
       <c r="D40" t="s">
-        <v>692</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -4854,13 +6174,13 @@
         <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>43</v>
+        <v>370</v>
       </c>
       <c r="C41" t="s">
-        <v>370</v>
+        <v>700</v>
       </c>
       <c r="D41" t="s">
-        <v>693</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -4868,13 +6188,13 @@
         <v>44</v>
       </c>
       <c r="B42" t="s">
-        <v>44</v>
+        <v>371</v>
       </c>
       <c r="C42" t="s">
-        <v>371</v>
+        <v>701</v>
       </c>
       <c r="D42" t="s">
-        <v>694</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -4882,13 +6202,13 @@
         <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>45</v>
+        <v>372</v>
       </c>
       <c r="C43" t="s">
-        <v>372</v>
+        <v>702</v>
       </c>
       <c r="D43" t="s">
-        <v>695</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -4896,13 +6216,13 @@
         <v>46</v>
       </c>
       <c r="B44" t="s">
-        <v>46</v>
+        <v>373</v>
       </c>
       <c r="C44" t="s">
-        <v>373</v>
+        <v>703</v>
       </c>
       <c r="D44" t="s">
-        <v>696</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -4910,13 +6230,13 @@
         <v>47</v>
       </c>
       <c r="B45" t="s">
-        <v>47</v>
+        <v>374</v>
       </c>
       <c r="C45" t="s">
-        <v>374</v>
+        <v>704</v>
       </c>
       <c r="D45" t="s">
-        <v>697</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -4924,13 +6244,13 @@
         <v>48</v>
       </c>
       <c r="B46" t="s">
-        <v>48</v>
+        <v>375</v>
       </c>
       <c r="C46" t="s">
-        <v>375</v>
+        <v>705</v>
       </c>
       <c r="D46" t="s">
-        <v>698</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -4938,13 +6258,13 @@
         <v>49</v>
       </c>
       <c r="B47" t="s">
-        <v>49</v>
+        <v>376</v>
       </c>
       <c r="C47" t="s">
-        <v>376</v>
+        <v>706</v>
       </c>
       <c r="D47" t="s">
-        <v>699</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -4952,13 +6272,13 @@
         <v>50</v>
       </c>
       <c r="B48" t="s">
-        <v>50</v>
+        <v>377</v>
       </c>
       <c r="C48" t="s">
-        <v>377</v>
+        <v>707</v>
       </c>
       <c r="D48" t="s">
-        <v>700</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -4966,13 +6286,13 @@
         <v>51</v>
       </c>
       <c r="B49" t="s">
-        <v>51</v>
+        <v>378</v>
       </c>
       <c r="C49" t="s">
-        <v>378</v>
+        <v>708</v>
       </c>
       <c r="D49" t="s">
-        <v>701</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -4980,13 +6300,13 @@
         <v>52</v>
       </c>
       <c r="B50" t="s">
-        <v>52</v>
+        <v>379</v>
       </c>
       <c r="C50" t="s">
-        <v>379</v>
+        <v>709</v>
       </c>
       <c r="D50" t="s">
-        <v>702</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -4994,13 +6314,13 @@
         <v>26</v>
       </c>
       <c r="B51" t="s">
-        <v>26</v>
+        <v>380</v>
       </c>
       <c r="C51" t="s">
-        <v>353</v>
+        <v>683</v>
       </c>
       <c r="D51" t="s">
-        <v>676</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -5008,13 +6328,13 @@
         <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>53</v>
+        <v>381</v>
       </c>
       <c r="C52" t="s">
-        <v>380</v>
+        <v>710</v>
       </c>
       <c r="D52" t="s">
-        <v>703</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -5022,13 +6342,13 @@
         <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>54</v>
+        <v>382</v>
       </c>
       <c r="C53" t="s">
-        <v>381</v>
+        <v>711</v>
       </c>
       <c r="D53" t="s">
-        <v>704</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -5036,13 +6356,13 @@
         <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>55</v>
+        <v>383</v>
       </c>
       <c r="C54" t="s">
-        <v>382</v>
+        <v>712</v>
       </c>
       <c r="D54" t="s">
-        <v>705</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -5050,13 +6370,13 @@
         <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>56</v>
+        <v>384</v>
       </c>
       <c r="C55" t="s">
-        <v>383</v>
+        <v>713</v>
       </c>
       <c r="D55" t="s">
-        <v>706</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -5064,13 +6384,13 @@
         <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>57</v>
+        <v>385</v>
       </c>
       <c r="C56" t="s">
-        <v>384</v>
+        <v>714</v>
       </c>
       <c r="D56" t="s">
-        <v>707</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -5078,13 +6398,13 @@
         <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>58</v>
+        <v>386</v>
       </c>
       <c r="C57" t="s">
-        <v>385</v>
+        <v>715</v>
       </c>
       <c r="D57" t="s">
-        <v>708</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -5092,13 +6412,13 @@
         <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>59</v>
+        <v>387</v>
       </c>
       <c r="C58" t="s">
-        <v>386</v>
+        <v>716</v>
       </c>
       <c r="D58" t="s">
-        <v>709</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -5106,13 +6426,13 @@
         <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>60</v>
+        <v>388</v>
       </c>
       <c r="C59" t="s">
-        <v>387</v>
+        <v>717</v>
       </c>
       <c r="D59" t="s">
-        <v>710</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -5120,13 +6440,13 @@
         <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>61</v>
+        <v>389</v>
       </c>
       <c r="C60" t="s">
-        <v>388</v>
+        <v>718</v>
       </c>
       <c r="D60" t="s">
-        <v>711</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -5134,13 +6454,13 @@
         <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>62</v>
+        <v>390</v>
       </c>
       <c r="C61" t="s">
-        <v>389</v>
+        <v>719</v>
       </c>
       <c r="D61" t="s">
-        <v>712</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -5148,13 +6468,13 @@
         <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>63</v>
+        <v>391</v>
       </c>
       <c r="C62" t="s">
-        <v>390</v>
+        <v>720</v>
       </c>
       <c r="D62" t="s">
-        <v>713</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -5162,13 +6482,13 @@
         <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>64</v>
+        <v>392</v>
       </c>
       <c r="C63" t="s">
-        <v>391</v>
+        <v>721</v>
       </c>
       <c r="D63" t="s">
-        <v>714</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -5176,13 +6496,13 @@
         <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>65</v>
+        <v>393</v>
       </c>
       <c r="C64" t="s">
-        <v>392</v>
+        <v>722</v>
       </c>
       <c r="D64" t="s">
-        <v>715</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -5190,13 +6510,13 @@
         <v>66</v>
       </c>
       <c r="B65" t="s">
-        <v>66</v>
+        <v>394</v>
       </c>
       <c r="C65" t="s">
-        <v>393</v>
+        <v>723</v>
       </c>
       <c r="D65" t="s">
-        <v>716</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -5204,13 +6524,13 @@
         <v>67</v>
       </c>
       <c r="B66" t="s">
-        <v>67</v>
+        <v>395</v>
       </c>
       <c r="C66" t="s">
-        <v>394</v>
+        <v>724</v>
       </c>
       <c r="D66" t="s">
-        <v>717</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -5218,13 +6538,13 @@
         <v>68</v>
       </c>
       <c r="B67" t="s">
-        <v>68</v>
+        <v>396</v>
       </c>
       <c r="C67" t="s">
-        <v>395</v>
+        <v>725</v>
       </c>
       <c r="D67" t="s">
-        <v>718</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -5232,13 +6552,13 @@
         <v>69</v>
       </c>
       <c r="B68" t="s">
-        <v>69</v>
+        <v>397</v>
       </c>
       <c r="C68" t="s">
-        <v>396</v>
+        <v>726</v>
       </c>
       <c r="D68" t="s">
-        <v>719</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -5246,13 +6566,13 @@
         <v>70</v>
       </c>
       <c r="B69" t="s">
-        <v>70</v>
+        <v>398</v>
       </c>
       <c r="C69" t="s">
-        <v>397</v>
+        <v>727</v>
       </c>
       <c r="D69" t="s">
-        <v>720</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -5260,13 +6580,13 @@
         <v>71</v>
       </c>
       <c r="B70" t="s">
-        <v>71</v>
+        <v>399</v>
       </c>
       <c r="C70" t="s">
-        <v>398</v>
+        <v>728</v>
       </c>
       <c r="D70" t="s">
-        <v>721</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -5274,13 +6594,13 @@
         <v>72</v>
       </c>
       <c r="B71" t="s">
-        <v>72</v>
+        <v>400</v>
       </c>
       <c r="C71" t="s">
-        <v>399</v>
+        <v>729</v>
       </c>
       <c r="D71" t="s">
-        <v>722</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -5288,13 +6608,13 @@
         <v>73</v>
       </c>
       <c r="B72" t="s">
-        <v>73</v>
+        <v>401</v>
       </c>
       <c r="C72" t="s">
-        <v>400</v>
+        <v>730</v>
       </c>
       <c r="D72" t="s">
-        <v>723</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -5302,13 +6622,13 @@
         <v>74</v>
       </c>
       <c r="B73" t="s">
-        <v>74</v>
+        <v>402</v>
       </c>
       <c r="C73" t="s">
-        <v>401</v>
+        <v>731</v>
       </c>
       <c r="D73" t="s">
-        <v>724</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -5316,13 +6636,13 @@
         <v>75</v>
       </c>
       <c r="B74" t="s">
-        <v>75</v>
+        <v>403</v>
       </c>
       <c r="C74" t="s">
-        <v>402</v>
+        <v>732</v>
       </c>
       <c r="D74" t="s">
-        <v>725</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -5330,13 +6650,13 @@
         <v>76</v>
       </c>
       <c r="B75" t="s">
-        <v>76</v>
+        <v>404</v>
       </c>
       <c r="C75" t="s">
-        <v>403</v>
+        <v>733</v>
       </c>
       <c r="D75" t="s">
-        <v>726</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -5344,13 +6664,13 @@
         <v>77</v>
       </c>
       <c r="B76" t="s">
-        <v>77</v>
+        <v>405</v>
       </c>
       <c r="C76" t="s">
-        <v>404</v>
+        <v>734</v>
       </c>
       <c r="D76" t="s">
-        <v>727</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -5358,13 +6678,13 @@
         <v>54</v>
       </c>
       <c r="B77" t="s">
-        <v>54</v>
+        <v>382</v>
       </c>
       <c r="C77" t="s">
-        <v>381</v>
+        <v>711</v>
       </c>
       <c r="D77" t="s">
-        <v>704</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -5372,13 +6692,13 @@
         <v>78</v>
       </c>
       <c r="B78" t="s">
-        <v>78</v>
+        <v>406</v>
       </c>
       <c r="C78" t="s">
-        <v>405</v>
+        <v>735</v>
       </c>
       <c r="D78" t="s">
-        <v>728</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -5386,13 +6706,13 @@
         <v>79</v>
       </c>
       <c r="B79" t="s">
-        <v>79</v>
+        <v>407</v>
       </c>
       <c r="C79" t="s">
-        <v>406</v>
+        <v>736</v>
       </c>
       <c r="D79" t="s">
-        <v>729</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -5400,13 +6720,13 @@
         <v>80</v>
       </c>
       <c r="B80" t="s">
-        <v>80</v>
+        <v>408</v>
       </c>
       <c r="C80" t="s">
-        <v>407</v>
+        <v>737</v>
       </c>
       <c r="D80" t="s">
-        <v>730</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -5414,13 +6734,13 @@
         <v>81</v>
       </c>
       <c r="B81" t="s">
-        <v>81</v>
+        <v>409</v>
       </c>
       <c r="C81" t="s">
-        <v>408</v>
+        <v>738</v>
       </c>
       <c r="D81" t="s">
-        <v>731</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -5428,13 +6748,13 @@
         <v>82</v>
       </c>
       <c r="B82" t="s">
-        <v>82</v>
+        <v>410</v>
       </c>
       <c r="C82" t="s">
-        <v>409</v>
+        <v>739</v>
       </c>
       <c r="D82" t="s">
-        <v>732</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -5442,13 +6762,13 @@
         <v>83</v>
       </c>
       <c r="B83" t="s">
-        <v>83</v>
+        <v>411</v>
       </c>
       <c r="C83" t="s">
-        <v>410</v>
+        <v>740</v>
       </c>
       <c r="D83" t="s">
-        <v>733</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -5456,13 +6776,13 @@
         <v>84</v>
       </c>
       <c r="B84" t="s">
-        <v>84</v>
+        <v>412</v>
       </c>
       <c r="C84" t="s">
-        <v>411</v>
+        <v>741</v>
       </c>
       <c r="D84" t="s">
-        <v>734</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -5470,13 +6790,13 @@
         <v>85</v>
       </c>
       <c r="B85" t="s">
-        <v>85</v>
+        <v>413</v>
       </c>
       <c r="C85" t="s">
-        <v>412</v>
+        <v>742</v>
       </c>
       <c r="D85" t="s">
-        <v>735</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -5484,13 +6804,13 @@
         <v>86</v>
       </c>
       <c r="B86" t="s">
-        <v>86</v>
+        <v>414</v>
       </c>
       <c r="C86" t="s">
-        <v>413</v>
+        <v>743</v>
       </c>
       <c r="D86" t="s">
-        <v>736</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -5498,13 +6818,13 @@
         <v>87</v>
       </c>
       <c r="B87" t="s">
-        <v>87</v>
+        <v>415</v>
       </c>
       <c r="C87" t="s">
-        <v>414</v>
+        <v>744</v>
       </c>
       <c r="D87" t="s">
-        <v>737</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -5512,13 +6832,13 @@
         <v>88</v>
       </c>
       <c r="B88" t="s">
-        <v>88</v>
+        <v>416</v>
       </c>
       <c r="C88" t="s">
-        <v>415</v>
+        <v>745</v>
       </c>
       <c r="D88" t="s">
-        <v>738</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -5526,13 +6846,13 @@
         <v>89</v>
       </c>
       <c r="B89" t="s">
-        <v>89</v>
+        <v>417</v>
       </c>
       <c r="C89" t="s">
-        <v>416</v>
+        <v>746</v>
       </c>
       <c r="D89" t="s">
-        <v>739</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -5540,13 +6860,13 @@
         <v>90</v>
       </c>
       <c r="B90" t="s">
-        <v>90</v>
+        <v>418</v>
       </c>
       <c r="C90" t="s">
-        <v>417</v>
+        <v>747</v>
       </c>
       <c r="D90" t="s">
-        <v>740</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -5554,13 +6874,13 @@
         <v>91</v>
       </c>
       <c r="B91" t="s">
-        <v>91</v>
+        <v>419</v>
       </c>
       <c r="C91" t="s">
-        <v>418</v>
+        <v>748</v>
       </c>
       <c r="D91" t="s">
-        <v>741</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -5568,13 +6888,13 @@
         <v>92</v>
       </c>
       <c r="B92" t="s">
-        <v>92</v>
+        <v>420</v>
       </c>
       <c r="C92" t="s">
-        <v>419</v>
+        <v>749</v>
       </c>
       <c r="D92" t="s">
-        <v>742</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -5582,13 +6902,13 @@
         <v>93</v>
       </c>
       <c r="B93" t="s">
-        <v>93</v>
+        <v>421</v>
       </c>
       <c r="C93" t="s">
-        <v>420</v>
+        <v>750</v>
       </c>
       <c r="D93" t="s">
-        <v>743</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -5596,13 +6916,13 @@
         <v>94</v>
       </c>
       <c r="B94" t="s">
-        <v>94</v>
+        <v>422</v>
       </c>
       <c r="C94" t="s">
-        <v>421</v>
+        <v>751</v>
       </c>
       <c r="D94" t="s">
-        <v>744</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -5610,13 +6930,13 @@
         <v>95</v>
       </c>
       <c r="B95" t="s">
-        <v>95</v>
+        <v>423</v>
       </c>
       <c r="C95" t="s">
-        <v>422</v>
+        <v>752</v>
       </c>
       <c r="D95" t="s">
-        <v>745</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -5624,13 +6944,13 @@
         <v>96</v>
       </c>
       <c r="B96" t="s">
-        <v>96</v>
+        <v>424</v>
       </c>
       <c r="C96" t="s">
-        <v>423</v>
+        <v>753</v>
       </c>
       <c r="D96" t="s">
-        <v>746</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -5638,13 +6958,13 @@
         <v>97</v>
       </c>
       <c r="B97" t="s">
-        <v>97</v>
+        <v>425</v>
       </c>
       <c r="C97" t="s">
-        <v>424</v>
+        <v>754</v>
       </c>
       <c r="D97" t="s">
-        <v>747</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -5652,13 +6972,13 @@
         <v>98</v>
       </c>
       <c r="B98" t="s">
-        <v>98</v>
+        <v>426</v>
       </c>
       <c r="C98" t="s">
-        <v>425</v>
+        <v>755</v>
       </c>
       <c r="D98" t="s">
-        <v>748</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -5666,13 +6986,13 @@
         <v>99</v>
       </c>
       <c r="B99" t="s">
-        <v>99</v>
+        <v>427</v>
       </c>
       <c r="C99" t="s">
-        <v>426</v>
+        <v>756</v>
       </c>
       <c r="D99" t="s">
-        <v>749</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -5680,13 +7000,13 @@
         <v>100</v>
       </c>
       <c r="B100" t="s">
-        <v>100</v>
+        <v>428</v>
       </c>
       <c r="C100" t="s">
-        <v>427</v>
+        <v>757</v>
       </c>
       <c r="D100" t="s">
-        <v>750</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -5694,13 +7014,13 @@
         <v>101</v>
       </c>
       <c r="B101" t="s">
-        <v>101</v>
+        <v>429</v>
       </c>
       <c r="C101" t="s">
-        <v>428</v>
+        <v>758</v>
       </c>
       <c r="D101" t="s">
-        <v>751</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -5708,13 +7028,13 @@
         <v>102</v>
       </c>
       <c r="B102" t="s">
-        <v>102</v>
+        <v>430</v>
       </c>
       <c r="C102" t="s">
-        <v>429</v>
+        <v>759</v>
       </c>
       <c r="D102" t="s">
-        <v>752</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -5722,13 +7042,13 @@
         <v>103</v>
       </c>
       <c r="B103" t="s">
-        <v>103</v>
+        <v>431</v>
       </c>
       <c r="C103" t="s">
-        <v>430</v>
+        <v>760</v>
       </c>
       <c r="D103" t="s">
-        <v>753</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -5736,13 +7056,13 @@
         <v>104</v>
       </c>
       <c r="B104" t="s">
-        <v>104</v>
+        <v>432</v>
       </c>
       <c r="C104" t="s">
-        <v>431</v>
+        <v>761</v>
       </c>
       <c r="D104" t="s">
-        <v>754</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -5750,13 +7070,13 @@
         <v>105</v>
       </c>
       <c r="B105" t="s">
-        <v>105</v>
+        <v>433</v>
       </c>
       <c r="C105" t="s">
-        <v>396</v>
+        <v>726</v>
       </c>
       <c r="D105" t="s">
-        <v>755</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -5764,13 +7084,13 @@
         <v>106</v>
       </c>
       <c r="B106" t="s">
-        <v>106</v>
+        <v>434</v>
       </c>
       <c r="C106" t="s">
-        <v>432</v>
+        <v>762</v>
       </c>
       <c r="D106" t="s">
-        <v>756</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -5778,13 +7098,13 @@
         <v>107</v>
       </c>
       <c r="B107" t="s">
-        <v>107</v>
+        <v>435</v>
       </c>
       <c r="C107" t="s">
-        <v>433</v>
+        <v>763</v>
       </c>
       <c r="D107" t="s">
-        <v>757</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -5792,13 +7112,13 @@
         <v>108</v>
       </c>
       <c r="B108" t="s">
-        <v>108</v>
+        <v>436</v>
       </c>
       <c r="C108" t="s">
-        <v>434</v>
+        <v>764</v>
       </c>
       <c r="D108" t="s">
-        <v>758</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -5806,13 +7126,13 @@
         <v>109</v>
       </c>
       <c r="B109" t="s">
-        <v>109</v>
+        <v>437</v>
       </c>
       <c r="C109" t="s">
-        <v>435</v>
+        <v>765</v>
       </c>
       <c r="D109" t="s">
-        <v>759</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -5820,13 +7140,13 @@
         <v>110</v>
       </c>
       <c r="B110" t="s">
-        <v>110</v>
+        <v>438</v>
       </c>
       <c r="C110" t="s">
-        <v>436</v>
+        <v>766</v>
       </c>
       <c r="D110" t="s">
-        <v>760</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -5834,13 +7154,13 @@
         <v>111</v>
       </c>
       <c r="B111" t="s">
-        <v>111</v>
+        <v>439</v>
       </c>
       <c r="C111" t="s">
-        <v>437</v>
+        <v>767</v>
       </c>
       <c r="D111" t="s">
-        <v>761</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -5848,13 +7168,13 @@
         <v>112</v>
       </c>
       <c r="B112" t="s">
-        <v>112</v>
+        <v>440</v>
       </c>
       <c r="C112" t="s">
-        <v>438</v>
+        <v>768</v>
       </c>
       <c r="D112" t="s">
-        <v>762</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -5862,13 +7182,13 @@
         <v>113</v>
       </c>
       <c r="B113" t="s">
-        <v>113</v>
+        <v>441</v>
       </c>
       <c r="C113" t="s">
-        <v>439</v>
+        <v>769</v>
       </c>
       <c r="D113" t="s">
-        <v>763</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -5876,13 +7196,13 @@
         <v>69</v>
       </c>
       <c r="B114" t="s">
-        <v>69</v>
+        <v>442</v>
       </c>
       <c r="C114" t="s">
-        <v>396</v>
+        <v>726</v>
       </c>
       <c r="D114" t="s">
-        <v>719</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -5890,13 +7210,13 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>114</v>
+        <v>443</v>
       </c>
       <c r="C115" t="s">
-        <v>440</v>
+        <v>770</v>
       </c>
       <c r="D115" t="s">
-        <v>764</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -5904,13 +7224,13 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>115</v>
+        <v>444</v>
       </c>
       <c r="C116" t="s">
-        <v>441</v>
+        <v>771</v>
       </c>
       <c r="D116" t="s">
-        <v>765</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -5918,13 +7238,13 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>116</v>
+        <v>445</v>
       </c>
       <c r="C117" t="s">
-        <v>442</v>
+        <v>772</v>
       </c>
       <c r="D117" t="s">
-        <v>766</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -5932,13 +7252,13 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>117</v>
+        <v>446</v>
       </c>
       <c r="C118" t="s">
-        <v>443</v>
+        <v>773</v>
       </c>
       <c r="D118" t="s">
-        <v>767</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -5946,13 +7266,13 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>118</v>
+        <v>447</v>
       </c>
       <c r="C119" t="s">
-        <v>444</v>
+        <v>774</v>
       </c>
       <c r="D119" t="s">
-        <v>768</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -5960,13 +7280,13 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>119</v>
+        <v>448</v>
       </c>
       <c r="C120" t="s">
-        <v>445</v>
+        <v>775</v>
       </c>
       <c r="D120" t="s">
-        <v>769</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -5974,13 +7294,13 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>120</v>
+        <v>449</v>
       </c>
       <c r="C121" t="s">
-        <v>446</v>
+        <v>776</v>
       </c>
       <c r="D121" t="s">
-        <v>770</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -5988,13 +7308,13 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>121</v>
+        <v>450</v>
       </c>
       <c r="C122" t="s">
-        <v>447</v>
+        <v>777</v>
       </c>
       <c r="D122" t="s">
-        <v>771</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -6002,13 +7322,13 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>122</v>
+        <v>451</v>
       </c>
       <c r="C123" t="s">
-        <v>448</v>
+        <v>778</v>
       </c>
       <c r="D123" t="s">
-        <v>772</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -6016,13 +7336,13 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>123</v>
+        <v>452</v>
       </c>
       <c r="C124" t="s">
-        <v>449</v>
+        <v>779</v>
       </c>
       <c r="D124" t="s">
-        <v>773</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -6030,13 +7350,13 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>124</v>
+        <v>453</v>
       </c>
       <c r="C125" t="s">
-        <v>450</v>
+        <v>780</v>
       </c>
       <c r="D125" t="s">
-        <v>774</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -6044,13 +7364,13 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>125</v>
+        <v>454</v>
       </c>
       <c r="C126" t="s">
-        <v>451</v>
+        <v>781</v>
       </c>
       <c r="D126" t="s">
-        <v>775</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -6058,13 +7378,13 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>126</v>
+        <v>455</v>
       </c>
       <c r="C127" t="s">
-        <v>452</v>
+        <v>782</v>
       </c>
       <c r="D127" t="s">
-        <v>776</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -6072,13 +7392,13 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>127</v>
+        <v>456</v>
       </c>
       <c r="C128" t="s">
-        <v>453</v>
+        <v>783</v>
       </c>
       <c r="D128" t="s">
-        <v>772</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -6086,13 +7406,13 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>128</v>
+        <v>457</v>
       </c>
       <c r="C129" t="s">
-        <v>454</v>
+        <v>784</v>
       </c>
       <c r="D129" t="s">
-        <v>777</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -6100,13 +7420,13 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>129</v>
+        <v>458</v>
       </c>
       <c r="C130" t="s">
-        <v>455</v>
+        <v>785</v>
       </c>
       <c r="D130" t="s">
-        <v>778</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -6114,13 +7434,13 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>130</v>
+        <v>459</v>
       </c>
       <c r="C131" t="s">
-        <v>456</v>
+        <v>786</v>
       </c>
       <c r="D131" t="s">
-        <v>779</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -6128,13 +7448,13 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>131</v>
+        <v>460</v>
       </c>
       <c r="C132" t="s">
-        <v>457</v>
+        <v>787</v>
       </c>
       <c r="D132" t="s">
-        <v>780</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -6142,13 +7462,13 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>132</v>
+        <v>461</v>
       </c>
       <c r="C133" t="s">
-        <v>458</v>
+        <v>788</v>
       </c>
       <c r="D133" t="s">
-        <v>781</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -6156,13 +7476,13 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>133</v>
+        <v>462</v>
       </c>
       <c r="C134" t="s">
-        <v>459</v>
+        <v>789</v>
       </c>
       <c r="D134" t="s">
-        <v>782</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -6170,13 +7490,13 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>134</v>
+        <v>463</v>
       </c>
       <c r="C135" t="s">
-        <v>460</v>
+        <v>790</v>
       </c>
       <c r="D135" t="s">
-        <v>783</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -6184,13 +7504,13 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>135</v>
+        <v>464</v>
       </c>
       <c r="C136" t="s">
-        <v>461</v>
+        <v>791</v>
       </c>
       <c r="D136" t="s">
-        <v>784</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -6198,13 +7518,13 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>136</v>
+        <v>465</v>
       </c>
       <c r="C137" t="s">
-        <v>462</v>
+        <v>792</v>
       </c>
       <c r="D137" t="s">
-        <v>785</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -6212,13 +7532,13 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>137</v>
+        <v>466</v>
       </c>
       <c r="C138" t="s">
-        <v>463</v>
+        <v>793</v>
       </c>
       <c r="D138" t="s">
-        <v>786</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -6226,13 +7546,13 @@
         <v>109</v>
       </c>
       <c r="B139" t="s">
-        <v>109</v>
+        <v>437</v>
       </c>
       <c r="C139" t="s">
-        <v>435</v>
+        <v>765</v>
       </c>
       <c r="D139" t="s">
-        <v>759</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -6240,13 +7560,13 @@
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>138</v>
+        <v>467</v>
       </c>
       <c r="C140" t="s">
-        <v>464</v>
+        <v>794</v>
       </c>
       <c r="D140" t="s">
-        <v>787</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -6254,13 +7574,13 @@
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>139</v>
+        <v>468</v>
       </c>
       <c r="C141" t="s">
-        <v>465</v>
+        <v>795</v>
       </c>
       <c r="D141" t="s">
-        <v>788</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -6268,13 +7588,13 @@
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>140</v>
+        <v>469</v>
       </c>
       <c r="C142" t="s">
-        <v>466</v>
+        <v>796</v>
       </c>
       <c r="D142" t="s">
-        <v>789</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -6282,13 +7602,13 @@
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>141</v>
+        <v>470</v>
       </c>
       <c r="C143" t="s">
-        <v>467</v>
+        <v>797</v>
       </c>
       <c r="D143" t="s">
-        <v>790</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -6296,13 +7616,13 @@
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>142</v>
+        <v>471</v>
       </c>
       <c r="C144" t="s">
-        <v>468</v>
+        <v>798</v>
       </c>
       <c r="D144" t="s">
-        <v>791</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -6310,13 +7630,13 @@
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>143</v>
+        <v>472</v>
       </c>
       <c r="C145" t="s">
-        <v>469</v>
+        <v>799</v>
       </c>
       <c r="D145" t="s">
-        <v>792</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -6324,13 +7644,13 @@
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>144</v>
+        <v>473</v>
       </c>
       <c r="C146" t="s">
-        <v>470</v>
+        <v>800</v>
       </c>
       <c r="D146" t="s">
-        <v>793</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -6338,13 +7658,13 @@
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>145</v>
+        <v>474</v>
       </c>
       <c r="C147" t="s">
-        <v>471</v>
+        <v>801</v>
       </c>
       <c r="D147" t="s">
-        <v>794</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -6352,13 +7672,13 @@
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>146</v>
+        <v>475</v>
       </c>
       <c r="C148" t="s">
-        <v>472</v>
+        <v>802</v>
       </c>
       <c r="D148" t="s">
-        <v>795</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -6366,13 +7686,13 @@
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>147</v>
+        <v>476</v>
       </c>
       <c r="C149" t="s">
-        <v>473</v>
+        <v>803</v>
       </c>
       <c r="D149" t="s">
-        <v>796</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -6380,13 +7700,13 @@
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>148</v>
+        <v>477</v>
       </c>
       <c r="C150" t="s">
-        <v>474</v>
+        <v>804</v>
       </c>
       <c r="D150" t="s">
-        <v>797</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -6394,13 +7714,13 @@
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>149</v>
+        <v>478</v>
       </c>
       <c r="C151" t="s">
-        <v>475</v>
+        <v>805</v>
       </c>
       <c r="D151" t="s">
-        <v>798</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -6408,13 +7728,13 @@
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>150</v>
+        <v>479</v>
       </c>
       <c r="C152" t="s">
-        <v>476</v>
+        <v>806</v>
       </c>
       <c r="D152" t="s">
-        <v>799</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -6422,13 +7742,13 @@
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>151</v>
+        <v>480</v>
       </c>
       <c r="C153" t="s">
-        <v>477</v>
+        <v>807</v>
       </c>
       <c r="D153" t="s">
-        <v>800</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -6436,13 +7756,13 @@
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>152</v>
+        <v>481</v>
       </c>
       <c r="C154" t="s">
-        <v>478</v>
+        <v>808</v>
       </c>
       <c r="D154" t="s">
-        <v>801</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -6450,13 +7770,13 @@
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>153</v>
+        <v>482</v>
       </c>
       <c r="C155" t="s">
-        <v>479</v>
+        <v>809</v>
       </c>
       <c r="D155" t="s">
-        <v>802</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -6464,13 +7784,13 @@
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>154</v>
+        <v>483</v>
       </c>
       <c r="C156" t="s">
-        <v>480</v>
+        <v>810</v>
       </c>
       <c r="D156" t="s">
-        <v>803</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -6478,13 +7798,13 @@
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>155</v>
+        <v>484</v>
       </c>
       <c r="C157" t="s">
-        <v>481</v>
+        <v>811</v>
       </c>
       <c r="D157" t="s">
-        <v>804</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -6492,13 +7812,13 @@
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>156</v>
+        <v>485</v>
       </c>
       <c r="C158" t="s">
-        <v>482</v>
+        <v>812</v>
       </c>
       <c r="D158" t="s">
-        <v>805</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -6506,13 +7826,13 @@
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>157</v>
+        <v>486</v>
       </c>
       <c r="C159" t="s">
-        <v>483</v>
+        <v>813</v>
       </c>
       <c r="D159" t="s">
-        <v>806</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -6520,13 +7840,13 @@
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>158</v>
+        <v>487</v>
       </c>
       <c r="C160" t="s">
-        <v>484</v>
+        <v>814</v>
       </c>
       <c r="D160" t="s">
-        <v>807</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -6534,13 +7854,13 @@
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>159</v>
+        <v>488</v>
       </c>
       <c r="C161" t="s">
-        <v>485</v>
+        <v>815</v>
       </c>
       <c r="D161" t="s">
-        <v>808</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -6548,13 +7868,13 @@
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>160</v>
+        <v>489</v>
       </c>
       <c r="C162" t="s">
-        <v>486</v>
+        <v>816</v>
       </c>
       <c r="D162" t="s">
-        <v>809</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -6562,13 +7882,13 @@
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>161</v>
+        <v>490</v>
       </c>
       <c r="C163" t="s">
-        <v>435</v>
+        <v>765</v>
       </c>
       <c r="D163" t="s">
-        <v>810</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -6576,13 +7896,13 @@
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>162</v>
+        <v>491</v>
       </c>
       <c r="C164" t="s">
-        <v>487</v>
+        <v>817</v>
       </c>
       <c r="D164" t="s">
-        <v>811</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -6590,13 +7910,13 @@
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>163</v>
+        <v>492</v>
       </c>
       <c r="C165" t="s">
-        <v>488</v>
+        <v>818</v>
       </c>
       <c r="D165" t="s">
-        <v>812</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -6604,13 +7924,13 @@
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>164</v>
+        <v>493</v>
       </c>
       <c r="C166" t="s">
-        <v>489</v>
+        <v>819</v>
       </c>
       <c r="D166" t="s">
-        <v>813</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -6618,13 +7938,13 @@
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>165</v>
+        <v>494</v>
       </c>
       <c r="C167" t="s">
-        <v>490</v>
+        <v>820</v>
       </c>
       <c r="D167" t="s">
-        <v>814</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -6632,13 +7952,13 @@
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>166</v>
+        <v>495</v>
       </c>
       <c r="C168" t="s">
-        <v>491</v>
+        <v>821</v>
       </c>
       <c r="D168" t="s">
-        <v>815</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -6646,13 +7966,13 @@
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>167</v>
+        <v>496</v>
       </c>
       <c r="C169" t="s">
-        <v>492</v>
+        <v>822</v>
       </c>
       <c r="D169" t="s">
-        <v>816</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -6660,13 +7980,13 @@
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>168</v>
+        <v>497</v>
       </c>
       <c r="C170" t="s">
-        <v>493</v>
+        <v>823</v>
       </c>
       <c r="D170" t="s">
-        <v>817</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -6674,13 +7994,13 @@
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>169</v>
+        <v>498</v>
       </c>
       <c r="C171" t="s">
-        <v>494</v>
+        <v>824</v>
       </c>
       <c r="D171" t="s">
-        <v>818</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -6688,13 +8008,13 @@
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>170</v>
+        <v>499</v>
       </c>
       <c r="C172" t="s">
-        <v>495</v>
+        <v>825</v>
       </c>
       <c r="D172" t="s">
-        <v>819</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -6702,13 +8022,13 @@
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>171</v>
+        <v>500</v>
       </c>
       <c r="C173" t="s">
-        <v>496</v>
+        <v>826</v>
       </c>
       <c r="D173" t="s">
-        <v>820</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -6716,13 +8036,13 @@
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>172</v>
+        <v>501</v>
       </c>
       <c r="C174" t="s">
-        <v>497</v>
+        <v>827</v>
       </c>
       <c r="D174" t="s">
-        <v>821</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -6730,13 +8050,13 @@
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>173</v>
+        <v>502</v>
       </c>
       <c r="C175" t="s">
-        <v>498</v>
+        <v>828</v>
       </c>
       <c r="D175" t="s">
-        <v>822</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -6744,13 +8064,13 @@
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>174</v>
+        <v>503</v>
       </c>
       <c r="C176" t="s">
-        <v>499</v>
+        <v>829</v>
       </c>
       <c r="D176" t="s">
-        <v>823</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -6758,13 +8078,13 @@
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>175</v>
+        <v>504</v>
       </c>
       <c r="C177" t="s">
-        <v>500</v>
+        <v>830</v>
       </c>
       <c r="D177" t="s">
-        <v>824</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -6772,13 +8092,13 @@
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>176</v>
+        <v>493</v>
       </c>
       <c r="C178" t="s">
-        <v>501</v>
+        <v>831</v>
       </c>
       <c r="D178" t="s">
-        <v>825</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -6786,13 +8106,13 @@
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>177</v>
+        <v>505</v>
       </c>
       <c r="C179" t="s">
-        <v>502</v>
+        <v>832</v>
       </c>
       <c r="D179" t="s">
-        <v>826</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -6800,13 +8120,13 @@
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>178</v>
+        <v>506</v>
       </c>
       <c r="C180" t="s">
-        <v>503</v>
+        <v>833</v>
       </c>
       <c r="D180" t="s">
-        <v>827</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -6814,13 +8134,13 @@
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>179</v>
+        <v>507</v>
       </c>
       <c r="C181" t="s">
-        <v>504</v>
+        <v>834</v>
       </c>
       <c r="D181" t="s">
-        <v>828</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -6842,13 +8162,13 @@
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>181</v>
+        <v>508</v>
       </c>
       <c r="C183" t="s">
-        <v>505</v>
+        <v>835</v>
       </c>
       <c r="D183" t="s">
-        <v>829</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -6856,13 +8176,13 @@
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>182</v>
+        <v>509</v>
       </c>
       <c r="C184" t="s">
-        <v>506</v>
+        <v>836</v>
       </c>
       <c r="D184" t="s">
-        <v>830</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -6870,13 +8190,13 @@
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>183</v>
+        <v>510</v>
       </c>
       <c r="C185" t="s">
-        <v>507</v>
+        <v>837</v>
       </c>
       <c r="D185" t="s">
-        <v>831</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -6884,13 +8204,13 @@
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>184</v>
+        <v>511</v>
       </c>
       <c r="C186" t="s">
-        <v>508</v>
+        <v>838</v>
       </c>
       <c r="D186" t="s">
-        <v>832</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -6898,13 +8218,13 @@
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>185</v>
+        <v>512</v>
       </c>
       <c r="C187" t="s">
-        <v>509</v>
+        <v>839</v>
       </c>
       <c r="D187" t="s">
-        <v>833</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -6912,13 +8232,13 @@
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>186</v>
+        <v>513</v>
       </c>
       <c r="C188" t="s">
-        <v>510</v>
+        <v>840</v>
       </c>
       <c r="D188" t="s">
-        <v>834</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -6926,13 +8246,13 @@
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>187</v>
+        <v>353</v>
       </c>
       <c r="C189" t="s">
-        <v>511</v>
+        <v>841</v>
       </c>
       <c r="D189" t="s">
-        <v>835</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -6940,13 +8260,13 @@
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>188</v>
+        <v>514</v>
       </c>
       <c r="C190" t="s">
-        <v>512</v>
+        <v>842</v>
       </c>
       <c r="D190" t="s">
-        <v>836</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -6954,13 +8274,13 @@
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>189</v>
+        <v>515</v>
       </c>
       <c r="C191" t="s">
-        <v>513</v>
+        <v>843</v>
       </c>
       <c r="D191" t="s">
-        <v>837</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -6968,13 +8288,13 @@
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>190</v>
+        <v>516</v>
       </c>
       <c r="C192" t="s">
-        <v>514</v>
+        <v>844</v>
       </c>
       <c r="D192" t="s">
-        <v>838</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -6982,13 +8302,13 @@
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>191</v>
+        <v>517</v>
       </c>
       <c r="C193" t="s">
-        <v>515</v>
+        <v>845</v>
       </c>
       <c r="D193" t="s">
-        <v>839</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -6996,13 +8316,13 @@
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>192</v>
+        <v>518</v>
       </c>
       <c r="C194" t="s">
-        <v>516</v>
+        <v>846</v>
       </c>
       <c r="D194" t="s">
-        <v>840</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -7010,13 +8330,13 @@
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>193</v>
+        <v>519</v>
       </c>
       <c r="C195" t="s">
-        <v>517</v>
+        <v>847</v>
       </c>
       <c r="D195" t="s">
-        <v>841</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -7024,13 +8344,13 @@
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>194</v>
+        <v>520</v>
       </c>
       <c r="C196" t="s">
-        <v>518</v>
+        <v>848</v>
       </c>
       <c r="D196" t="s">
-        <v>842</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -7038,13 +8358,13 @@
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>195</v>
+        <v>521</v>
       </c>
       <c r="C197" t="s">
-        <v>519</v>
+        <v>849</v>
       </c>
       <c r="D197" t="s">
-        <v>843</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -7052,13 +8372,13 @@
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>196</v>
+        <v>522</v>
       </c>
       <c r="C198" t="s">
-        <v>520</v>
+        <v>850</v>
       </c>
       <c r="D198" t="s">
-        <v>844</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -7066,13 +8386,13 @@
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>197</v>
+        <v>523</v>
       </c>
       <c r="C199" t="s">
-        <v>521</v>
+        <v>851</v>
       </c>
       <c r="D199" t="s">
-        <v>845</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -7080,13 +8400,13 @@
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>198</v>
+        <v>524</v>
       </c>
       <c r="C200" t="s">
-        <v>522</v>
+        <v>852</v>
       </c>
       <c r="D200" t="s">
-        <v>846</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -7094,13 +8414,13 @@
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>199</v>
+        <v>525</v>
       </c>
       <c r="C201" t="s">
-        <v>523</v>
+        <v>853</v>
       </c>
       <c r="D201" t="s">
-        <v>847</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -7108,13 +8428,13 @@
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>200</v>
+        <v>526</v>
       </c>
       <c r="C202" t="s">
-        <v>524</v>
+        <v>854</v>
       </c>
       <c r="D202" t="s">
-        <v>848</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -7122,13 +8442,13 @@
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>201</v>
+        <v>527</v>
       </c>
       <c r="C203" t="s">
-        <v>525</v>
+        <v>855</v>
       </c>
       <c r="D203" t="s">
-        <v>849</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -7136,13 +8456,13 @@
         <v>202</v>
       </c>
       <c r="B204" t="s">
-        <v>202</v>
+        <v>528</v>
       </c>
       <c r="C204" t="s">
-        <v>526</v>
+        <v>856</v>
       </c>
       <c r="D204" t="s">
-        <v>850</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -7150,13 +8470,13 @@
         <v>203</v>
       </c>
       <c r="B205" t="s">
-        <v>203</v>
+        <v>529</v>
       </c>
       <c r="C205" t="s">
-        <v>527</v>
+        <v>857</v>
       </c>
       <c r="D205" t="s">
-        <v>851</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -7164,13 +8484,13 @@
         <v>204</v>
       </c>
       <c r="B206" t="s">
-        <v>204</v>
+        <v>530</v>
       </c>
       <c r="C206" t="s">
-        <v>528</v>
+        <v>858</v>
       </c>
       <c r="D206" t="s">
-        <v>852</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -7178,13 +8498,13 @@
         <v>26</v>
       </c>
       <c r="B207" t="s">
-        <v>26</v>
+        <v>531</v>
       </c>
       <c r="C207" t="s">
-        <v>353</v>
+        <v>683</v>
       </c>
       <c r="D207" t="s">
-        <v>676</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -7192,13 +8512,13 @@
         <v>205</v>
       </c>
       <c r="B208" t="s">
-        <v>205</v>
+        <v>532</v>
       </c>
       <c r="C208" t="s">
-        <v>529</v>
+        <v>859</v>
       </c>
       <c r="D208" t="s">
-        <v>853</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -7206,13 +8526,13 @@
         <v>206</v>
       </c>
       <c r="B209" t="s">
-        <v>206</v>
+        <v>533</v>
       </c>
       <c r="C209" t="s">
-        <v>530</v>
+        <v>860</v>
       </c>
       <c r="D209" t="s">
-        <v>854</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -7220,13 +8540,13 @@
         <v>207</v>
       </c>
       <c r="B210" t="s">
-        <v>207</v>
+        <v>534</v>
       </c>
       <c r="C210" t="s">
-        <v>531</v>
+        <v>861</v>
       </c>
       <c r="D210" t="s">
-        <v>855</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -7234,13 +8554,13 @@
         <v>208</v>
       </c>
       <c r="B211" t="s">
-        <v>208</v>
+        <v>535</v>
       </c>
       <c r="C211" t="s">
-        <v>532</v>
+        <v>862</v>
       </c>
       <c r="D211" t="s">
-        <v>856</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -7248,13 +8568,13 @@
         <v>209</v>
       </c>
       <c r="B212" t="s">
-        <v>209</v>
+        <v>536</v>
       </c>
       <c r="C212" t="s">
-        <v>533</v>
+        <v>863</v>
       </c>
       <c r="D212" t="s">
-        <v>857</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -7262,13 +8582,13 @@
         <v>210</v>
       </c>
       <c r="B213" t="s">
-        <v>210</v>
+        <v>537</v>
       </c>
       <c r="C213" t="s">
-        <v>534</v>
+        <v>864</v>
       </c>
       <c r="D213" t="s">
-        <v>858</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -7276,13 +8596,13 @@
         <v>211</v>
       </c>
       <c r="B214" t="s">
-        <v>211</v>
+        <v>538</v>
       </c>
       <c r="C214" t="s">
-        <v>535</v>
+        <v>865</v>
       </c>
       <c r="D214" t="s">
-        <v>859</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -7290,13 +8610,13 @@
         <v>212</v>
       </c>
       <c r="B215" t="s">
-        <v>212</v>
+        <v>539</v>
       </c>
       <c r="C215" t="s">
-        <v>536</v>
+        <v>866</v>
       </c>
       <c r="D215" t="s">
-        <v>860</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -7304,13 +8624,13 @@
         <v>213</v>
       </c>
       <c r="B216" t="s">
-        <v>213</v>
+        <v>540</v>
       </c>
       <c r="C216" t="s">
-        <v>537</v>
+        <v>867</v>
       </c>
       <c r="D216" t="s">
-        <v>861</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -7318,13 +8638,13 @@
         <v>214</v>
       </c>
       <c r="B217" t="s">
-        <v>214</v>
+        <v>541</v>
       </c>
       <c r="C217" t="s">
-        <v>538</v>
+        <v>868</v>
       </c>
       <c r="D217" t="s">
-        <v>862</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -7332,13 +8652,13 @@
         <v>215</v>
       </c>
       <c r="B218" t="s">
-        <v>215</v>
+        <v>542</v>
       </c>
       <c r="C218" t="s">
-        <v>539</v>
+        <v>869</v>
       </c>
       <c r="D218" t="s">
-        <v>863</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -7346,13 +8666,13 @@
         <v>216</v>
       </c>
       <c r="B219" t="s">
-        <v>216</v>
+        <v>543</v>
       </c>
       <c r="C219" t="s">
-        <v>540</v>
+        <v>870</v>
       </c>
       <c r="D219" t="s">
-        <v>864</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -7360,13 +8680,13 @@
         <v>217</v>
       </c>
       <c r="B220" t="s">
-        <v>217</v>
+        <v>544</v>
       </c>
       <c r="C220" t="s">
-        <v>541</v>
+        <v>871</v>
       </c>
       <c r="D220" t="s">
-        <v>865</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -7374,13 +8694,13 @@
         <v>185</v>
       </c>
       <c r="B221" t="s">
-        <v>185</v>
+        <v>545</v>
       </c>
       <c r="C221" t="s">
-        <v>509</v>
+        <v>839</v>
       </c>
       <c r="D221" t="s">
-        <v>833</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -7388,13 +8708,13 @@
         <v>218</v>
       </c>
       <c r="B222" t="s">
-        <v>218</v>
+        <v>546</v>
       </c>
       <c r="C222" t="s">
-        <v>542</v>
+        <v>872</v>
       </c>
       <c r="D222" t="s">
-        <v>866</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -7402,13 +8722,13 @@
         <v>219</v>
       </c>
       <c r="B223" t="s">
-        <v>219</v>
+        <v>547</v>
       </c>
       <c r="C223" t="s">
-        <v>543</v>
+        <v>873</v>
       </c>
       <c r="D223" t="s">
-        <v>867</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -7416,13 +8736,13 @@
         <v>220</v>
       </c>
       <c r="B224" t="s">
-        <v>220</v>
+        <v>548</v>
       </c>
       <c r="C224" t="s">
-        <v>544</v>
+        <v>874</v>
       </c>
       <c r="D224" t="s">
-        <v>868</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -7430,13 +8750,13 @@
         <v>221</v>
       </c>
       <c r="B225" t="s">
-        <v>221</v>
+        <v>549</v>
       </c>
       <c r="C225" t="s">
-        <v>545</v>
+        <v>875</v>
       </c>
       <c r="D225" t="s">
-        <v>869</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -7444,13 +8764,13 @@
         <v>222</v>
       </c>
       <c r="B226" t="s">
-        <v>222</v>
+        <v>550</v>
       </c>
       <c r="C226" t="s">
-        <v>546</v>
+        <v>876</v>
       </c>
       <c r="D226" t="s">
-        <v>870</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -7458,13 +8778,13 @@
         <v>223</v>
       </c>
       <c r="B227" t="s">
-        <v>223</v>
+        <v>551</v>
       </c>
       <c r="C227" t="s">
-        <v>547</v>
+        <v>877</v>
       </c>
       <c r="D227" t="s">
-        <v>871</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -7472,13 +8792,13 @@
         <v>224</v>
       </c>
       <c r="B228" t="s">
-        <v>224</v>
+        <v>552</v>
       </c>
       <c r="C228" t="s">
-        <v>548</v>
+        <v>878</v>
       </c>
       <c r="D228" t="s">
-        <v>872</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -7486,13 +8806,13 @@
         <v>225</v>
       </c>
       <c r="B229" t="s">
-        <v>225</v>
+        <v>553</v>
       </c>
       <c r="C229" t="s">
-        <v>549</v>
+        <v>879</v>
       </c>
       <c r="D229" t="s">
-        <v>873</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -7500,13 +8820,13 @@
         <v>226</v>
       </c>
       <c r="B230" t="s">
-        <v>226</v>
+        <v>554</v>
       </c>
       <c r="C230" t="s">
-        <v>550</v>
+        <v>880</v>
       </c>
       <c r="D230" t="s">
-        <v>874</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -7514,13 +8834,13 @@
         <v>227</v>
       </c>
       <c r="B231" t="s">
-        <v>227</v>
+        <v>555</v>
       </c>
       <c r="C231" t="s">
-        <v>551</v>
+        <v>881</v>
       </c>
       <c r="D231" t="s">
-        <v>875</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -7528,13 +8848,13 @@
         <v>228</v>
       </c>
       <c r="B232" t="s">
-        <v>228</v>
+        <v>556</v>
       </c>
       <c r="C232" t="s">
-        <v>552</v>
+        <v>882</v>
       </c>
       <c r="D232" t="s">
-        <v>876</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -7542,13 +8862,13 @@
         <v>216</v>
       </c>
       <c r="B233" t="s">
-        <v>216</v>
+        <v>557</v>
       </c>
       <c r="C233" t="s">
-        <v>540</v>
+        <v>870</v>
       </c>
       <c r="D233" t="s">
-        <v>864</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -7556,13 +8876,13 @@
         <v>229</v>
       </c>
       <c r="B234" t="s">
-        <v>229</v>
+        <v>558</v>
       </c>
       <c r="C234" t="s">
-        <v>553</v>
+        <v>883</v>
       </c>
       <c r="D234" t="s">
-        <v>877</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -7570,13 +8890,13 @@
         <v>230</v>
       </c>
       <c r="B235" t="s">
-        <v>230</v>
+        <v>559</v>
       </c>
       <c r="C235" t="s">
-        <v>554</v>
+        <v>884</v>
       </c>
       <c r="D235" t="s">
-        <v>878</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -7584,13 +8904,13 @@
         <v>231</v>
       </c>
       <c r="B236" t="s">
-        <v>231</v>
+        <v>560</v>
       </c>
       <c r="C236" t="s">
-        <v>555</v>
+        <v>885</v>
       </c>
       <c r="D236" t="s">
-        <v>879</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -7598,13 +8918,13 @@
         <v>232</v>
       </c>
       <c r="B237" t="s">
-        <v>232</v>
+        <v>561</v>
       </c>
       <c r="C237" t="s">
-        <v>556</v>
+        <v>886</v>
       </c>
       <c r="D237" t="s">
-        <v>880</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -7612,13 +8932,13 @@
         <v>233</v>
       </c>
       <c r="B238" t="s">
-        <v>233</v>
+        <v>562</v>
       </c>
       <c r="C238" t="s">
-        <v>557</v>
+        <v>887</v>
       </c>
       <c r="D238" t="s">
-        <v>881</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -7626,13 +8946,13 @@
         <v>234</v>
       </c>
       <c r="B239" t="s">
-        <v>234</v>
+        <v>563</v>
       </c>
       <c r="C239" t="s">
-        <v>558</v>
+        <v>888</v>
       </c>
       <c r="D239" t="s">
-        <v>882</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -7640,13 +8960,13 @@
         <v>235</v>
       </c>
       <c r="B240" t="s">
-        <v>235</v>
+        <v>564</v>
       </c>
       <c r="C240" t="s">
-        <v>559</v>
+        <v>889</v>
       </c>
       <c r="D240" t="s">
-        <v>883</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -7654,13 +8974,13 @@
         <v>236</v>
       </c>
       <c r="B241" t="s">
-        <v>236</v>
+        <v>565</v>
       </c>
       <c r="C241" t="s">
-        <v>560</v>
+        <v>890</v>
       </c>
       <c r="D241" t="s">
-        <v>884</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -7668,13 +8988,13 @@
         <v>237</v>
       </c>
       <c r="B242" t="s">
-        <v>237</v>
+        <v>566</v>
       </c>
       <c r="C242" t="s">
-        <v>561</v>
+        <v>891</v>
       </c>
       <c r="D242" t="s">
-        <v>885</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -7682,13 +9002,13 @@
         <v>238</v>
       </c>
       <c r="B243" t="s">
-        <v>238</v>
+        <v>567</v>
       </c>
       <c r="C243" t="s">
-        <v>562</v>
+        <v>892</v>
       </c>
       <c r="D243" t="s">
-        <v>886</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -7696,13 +9016,13 @@
         <v>239</v>
       </c>
       <c r="B244" t="s">
-        <v>239</v>
+        <v>568</v>
       </c>
       <c r="C244" t="s">
-        <v>563</v>
+        <v>893</v>
       </c>
       <c r="D244" t="s">
-        <v>887</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -7710,13 +9030,13 @@
         <v>240</v>
       </c>
       <c r="B245" t="s">
-        <v>240</v>
+        <v>569</v>
       </c>
       <c r="C245" t="s">
-        <v>564</v>
+        <v>894</v>
       </c>
       <c r="D245" t="s">
-        <v>888</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -7724,13 +9044,13 @@
         <v>241</v>
       </c>
       <c r="B246" t="s">
-        <v>241</v>
+        <v>570</v>
       </c>
       <c r="C246" t="s">
-        <v>565</v>
+        <v>895</v>
       </c>
       <c r="D246" t="s">
-        <v>889</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -7738,13 +9058,13 @@
         <v>242</v>
       </c>
       <c r="B247" t="s">
-        <v>242</v>
+        <v>571</v>
       </c>
       <c r="C247" t="s">
-        <v>566</v>
+        <v>896</v>
       </c>
       <c r="D247" t="s">
-        <v>890</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -7752,13 +9072,13 @@
         <v>243</v>
       </c>
       <c r="B248" t="s">
-        <v>243</v>
+        <v>572</v>
       </c>
       <c r="C248" t="s">
-        <v>567</v>
+        <v>897</v>
       </c>
       <c r="D248" t="s">
-        <v>891</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -7766,13 +9086,13 @@
         <v>244</v>
       </c>
       <c r="B249" t="s">
-        <v>244</v>
+        <v>573</v>
       </c>
       <c r="C249" t="s">
-        <v>568</v>
+        <v>898</v>
       </c>
       <c r="D249" t="s">
-        <v>892</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -7780,13 +9100,13 @@
         <v>245</v>
       </c>
       <c r="B250" t="s">
-        <v>245</v>
+        <v>574</v>
       </c>
       <c r="C250" t="s">
-        <v>569</v>
+        <v>899</v>
       </c>
       <c r="D250" t="s">
-        <v>893</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -7794,13 +9114,13 @@
         <v>246</v>
       </c>
       <c r="B251" t="s">
-        <v>246</v>
+        <v>575</v>
       </c>
       <c r="C251" t="s">
-        <v>570</v>
+        <v>900</v>
       </c>
       <c r="D251" t="s">
-        <v>894</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -7808,13 +9128,13 @@
         <v>247</v>
       </c>
       <c r="B252" t="s">
-        <v>247</v>
+        <v>576</v>
       </c>
       <c r="C252" t="s">
-        <v>571</v>
+        <v>901</v>
       </c>
       <c r="D252" t="s">
-        <v>895</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -7822,13 +9142,13 @@
         <v>248</v>
       </c>
       <c r="B253" t="s">
-        <v>248</v>
+        <v>577</v>
       </c>
       <c r="C253" t="s">
-        <v>572</v>
+        <v>902</v>
       </c>
       <c r="D253" t="s">
-        <v>896</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -7836,13 +9156,13 @@
         <v>249</v>
       </c>
       <c r="B254" t="s">
-        <v>249</v>
+        <v>578</v>
       </c>
       <c r="C254" t="s">
-        <v>573</v>
+        <v>903</v>
       </c>
       <c r="D254" t="s">
-        <v>897</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -7850,13 +9170,13 @@
         <v>250</v>
       </c>
       <c r="B255" t="s">
-        <v>250</v>
+        <v>579</v>
       </c>
       <c r="C255" t="s">
-        <v>574</v>
+        <v>904</v>
       </c>
       <c r="D255" t="s">
-        <v>898</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -7864,13 +9184,13 @@
         <v>251</v>
       </c>
       <c r="B256" t="s">
-        <v>251</v>
+        <v>580</v>
       </c>
       <c r="C256" t="s">
-        <v>575</v>
+        <v>905</v>
       </c>
       <c r="D256" t="s">
-        <v>899</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -7878,13 +9198,13 @@
         <v>252</v>
       </c>
       <c r="B257" t="s">
-        <v>252</v>
+        <v>581</v>
       </c>
       <c r="C257" t="s">
-        <v>576</v>
+        <v>906</v>
       </c>
       <c r="D257" t="s">
-        <v>900</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -7892,13 +9212,13 @@
         <v>253</v>
       </c>
       <c r="B258" t="s">
-        <v>253</v>
+        <v>582</v>
       </c>
       <c r="C258" t="s">
-        <v>577</v>
+        <v>907</v>
       </c>
       <c r="D258" t="s">
-        <v>901</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -7906,13 +9226,13 @@
         <v>254</v>
       </c>
       <c r="B259" t="s">
-        <v>254</v>
+        <v>583</v>
       </c>
       <c r="C259" t="s">
-        <v>578</v>
+        <v>908</v>
       </c>
       <c r="D259" t="s">
-        <v>902</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -7920,13 +9240,13 @@
         <v>255</v>
       </c>
       <c r="B260" t="s">
-        <v>255</v>
+        <v>584</v>
       </c>
       <c r="C260" t="s">
-        <v>579</v>
+        <v>909</v>
       </c>
       <c r="D260" t="s">
-        <v>903</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -7934,13 +9254,13 @@
         <v>256</v>
       </c>
       <c r="B261" t="s">
-        <v>256</v>
+        <v>585</v>
       </c>
       <c r="C261" t="s">
-        <v>412</v>
+        <v>742</v>
       </c>
       <c r="D261" t="s">
-        <v>904</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -7948,13 +9268,13 @@
         <v>257</v>
       </c>
       <c r="B262" t="s">
-        <v>257</v>
+        <v>586</v>
       </c>
       <c r="C262" t="s">
-        <v>580</v>
+        <v>910</v>
       </c>
       <c r="D262" t="s">
-        <v>905</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -7962,13 +9282,13 @@
         <v>258</v>
       </c>
       <c r="B263" t="s">
-        <v>258</v>
+        <v>587</v>
       </c>
       <c r="C263" t="s">
-        <v>581</v>
+        <v>911</v>
       </c>
       <c r="D263" t="s">
-        <v>906</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -7976,13 +9296,13 @@
         <v>259</v>
       </c>
       <c r="B264" t="s">
-        <v>259</v>
+        <v>588</v>
       </c>
       <c r="C264" t="s">
-        <v>582</v>
+        <v>912</v>
       </c>
       <c r="D264" t="s">
-        <v>907</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -7990,13 +9310,13 @@
         <v>260</v>
       </c>
       <c r="B265" t="s">
-        <v>260</v>
+        <v>589</v>
       </c>
       <c r="C265" t="s">
-        <v>583</v>
+        <v>913</v>
       </c>
       <c r="D265" t="s">
-        <v>908</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -8004,13 +9324,13 @@
         <v>261</v>
       </c>
       <c r="B266" t="s">
-        <v>261</v>
+        <v>590</v>
       </c>
       <c r="C266" t="s">
-        <v>584</v>
+        <v>914</v>
       </c>
       <c r="D266" t="s">
-        <v>909</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -8018,13 +9338,13 @@
         <v>262</v>
       </c>
       <c r="B267" t="s">
-        <v>262</v>
+        <v>591</v>
       </c>
       <c r="C267" t="s">
-        <v>585</v>
+        <v>915</v>
       </c>
       <c r="D267" t="s">
-        <v>910</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -8032,13 +9352,13 @@
         <v>263</v>
       </c>
       <c r="B268" t="s">
-        <v>263</v>
+        <v>592</v>
       </c>
       <c r="C268" t="s">
-        <v>586</v>
+        <v>916</v>
       </c>
       <c r="D268" t="s">
-        <v>911</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -8046,13 +9366,13 @@
         <v>264</v>
       </c>
       <c r="B269" t="s">
-        <v>264</v>
+        <v>593</v>
       </c>
       <c r="C269" t="s">
-        <v>587</v>
+        <v>917</v>
       </c>
       <c r="D269" t="s">
-        <v>912</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -8060,13 +9380,13 @@
         <v>265</v>
       </c>
       <c r="B270" t="s">
-        <v>265</v>
+        <v>594</v>
       </c>
       <c r="C270" t="s">
-        <v>588</v>
+        <v>918</v>
       </c>
       <c r="D270" t="s">
-        <v>913</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -8074,13 +9394,13 @@
         <v>54</v>
       </c>
       <c r="B271" t="s">
-        <v>54</v>
+        <v>382</v>
       </c>
       <c r="C271" t="s">
-        <v>381</v>
+        <v>711</v>
       </c>
       <c r="D271" t="s">
-        <v>704</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -8088,13 +9408,13 @@
         <v>266</v>
       </c>
       <c r="B272" t="s">
-        <v>266</v>
+        <v>595</v>
       </c>
       <c r="C272" t="s">
-        <v>589</v>
+        <v>919</v>
       </c>
       <c r="D272" t="s">
-        <v>914</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -8102,13 +9422,13 @@
         <v>267</v>
       </c>
       <c r="B273" t="s">
-        <v>267</v>
+        <v>596</v>
       </c>
       <c r="C273" t="s">
-        <v>590</v>
+        <v>920</v>
       </c>
       <c r="D273" t="s">
-        <v>915</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -8116,13 +9436,13 @@
         <v>268</v>
       </c>
       <c r="B274" t="s">
-        <v>268</v>
+        <v>597</v>
       </c>
       <c r="C274" t="s">
-        <v>591</v>
+        <v>921</v>
       </c>
       <c r="D274" t="s">
-        <v>916</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -8130,13 +9450,13 @@
         <v>269</v>
       </c>
       <c r="B275" t="s">
-        <v>269</v>
+        <v>598</v>
       </c>
       <c r="C275" t="s">
-        <v>592</v>
+        <v>922</v>
       </c>
       <c r="D275" t="s">
-        <v>917</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -8144,13 +9464,13 @@
         <v>270</v>
       </c>
       <c r="B276" t="s">
-        <v>270</v>
+        <v>599</v>
       </c>
       <c r="C276" t="s">
-        <v>593</v>
+        <v>923</v>
       </c>
       <c r="D276" t="s">
-        <v>918</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -8158,13 +9478,13 @@
         <v>271</v>
       </c>
       <c r="B277" t="s">
-        <v>271</v>
+        <v>600</v>
       </c>
       <c r="C277" t="s">
-        <v>594</v>
+        <v>924</v>
       </c>
       <c r="D277" t="s">
-        <v>919</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -8172,13 +9492,13 @@
         <v>272</v>
       </c>
       <c r="B278" t="s">
-        <v>272</v>
+        <v>601</v>
       </c>
       <c r="C278" t="s">
-        <v>595</v>
+        <v>925</v>
       </c>
       <c r="D278" t="s">
-        <v>920</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -8186,13 +9506,13 @@
         <v>273</v>
       </c>
       <c r="B279" t="s">
-        <v>273</v>
+        <v>602</v>
       </c>
       <c r="C279" t="s">
-        <v>596</v>
+        <v>926</v>
       </c>
       <c r="D279" t="s">
-        <v>921</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -8200,13 +9520,13 @@
         <v>274</v>
       </c>
       <c r="B280" t="s">
-        <v>274</v>
+        <v>603</v>
       </c>
       <c r="C280" t="s">
-        <v>597</v>
+        <v>927</v>
       </c>
       <c r="D280" t="s">
-        <v>922</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -8214,13 +9534,13 @@
         <v>275</v>
       </c>
       <c r="B281" t="s">
-        <v>275</v>
+        <v>604</v>
       </c>
       <c r="C281" t="s">
-        <v>598</v>
+        <v>928</v>
       </c>
       <c r="D281" t="s">
-        <v>923</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -8228,13 +9548,13 @@
         <v>276</v>
       </c>
       <c r="B282" t="s">
-        <v>276</v>
+        <v>605</v>
       </c>
       <c r="C282" t="s">
-        <v>599</v>
+        <v>929</v>
       </c>
       <c r="D282" t="s">
-        <v>924</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -8242,13 +9562,13 @@
         <v>277</v>
       </c>
       <c r="B283" t="s">
-        <v>277</v>
+        <v>606</v>
       </c>
       <c r="C283" t="s">
-        <v>600</v>
+        <v>930</v>
       </c>
       <c r="D283" t="s">
-        <v>925</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -8256,13 +9576,13 @@
         <v>278</v>
       </c>
       <c r="B284" t="s">
-        <v>278</v>
+        <v>607</v>
       </c>
       <c r="C284" t="s">
-        <v>601</v>
+        <v>931</v>
       </c>
       <c r="D284" t="s">
-        <v>926</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -8270,13 +9590,13 @@
         <v>279</v>
       </c>
       <c r="B285" t="s">
-        <v>279</v>
+        <v>608</v>
       </c>
       <c r="C285" t="s">
-        <v>602</v>
+        <v>932</v>
       </c>
       <c r="D285" t="s">
-        <v>927</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -8284,13 +9604,13 @@
         <v>280</v>
       </c>
       <c r="B286" t="s">
-        <v>280</v>
+        <v>609</v>
       </c>
       <c r="C286" t="s">
-        <v>603</v>
+        <v>933</v>
       </c>
       <c r="D286" t="s">
-        <v>928</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -8298,13 +9618,13 @@
         <v>281</v>
       </c>
       <c r="B287" t="s">
-        <v>281</v>
+        <v>610</v>
       </c>
       <c r="C287" t="s">
-        <v>604</v>
+        <v>934</v>
       </c>
       <c r="D287" t="s">
-        <v>929</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -8312,13 +9632,13 @@
         <v>282</v>
       </c>
       <c r="B288" t="s">
-        <v>282</v>
+        <v>611</v>
       </c>
       <c r="C288" t="s">
-        <v>605</v>
+        <v>935</v>
       </c>
       <c r="D288" t="s">
-        <v>930</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -8326,13 +9646,13 @@
         <v>283</v>
       </c>
       <c r="B289" t="s">
-        <v>283</v>
+        <v>612</v>
       </c>
       <c r="C289" t="s">
-        <v>606</v>
+        <v>936</v>
       </c>
       <c r="D289" t="s">
-        <v>931</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -8340,13 +9660,13 @@
         <v>284</v>
       </c>
       <c r="B290" t="s">
-        <v>284</v>
+        <v>613</v>
       </c>
       <c r="C290" t="s">
-        <v>607</v>
+        <v>937</v>
       </c>
       <c r="D290" t="s">
-        <v>932</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -8354,13 +9674,13 @@
         <v>285</v>
       </c>
       <c r="B291" t="s">
-        <v>285</v>
+        <v>614</v>
       </c>
       <c r="C291" t="s">
-        <v>608</v>
+        <v>938</v>
       </c>
       <c r="D291" t="s">
-        <v>933</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -8368,13 +9688,13 @@
         <v>286</v>
       </c>
       <c r="B292" t="s">
-        <v>286</v>
+        <v>615</v>
       </c>
       <c r="C292" t="s">
-        <v>609</v>
+        <v>939</v>
       </c>
       <c r="D292" t="s">
-        <v>934</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -8382,13 +9702,13 @@
         <v>287</v>
       </c>
       <c r="B293" t="s">
-        <v>287</v>
+        <v>616</v>
       </c>
       <c r="C293" t="s">
-        <v>610</v>
+        <v>940</v>
       </c>
       <c r="D293" t="s">
-        <v>935</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -8396,13 +9716,13 @@
         <v>288</v>
       </c>
       <c r="B294" t="s">
-        <v>288</v>
+        <v>617</v>
       </c>
       <c r="C294" t="s">
-        <v>611</v>
+        <v>941</v>
       </c>
       <c r="D294" t="s">
-        <v>936</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -8410,13 +9730,13 @@
         <v>289</v>
       </c>
       <c r="B295" t="s">
-        <v>289</v>
+        <v>618</v>
       </c>
       <c r="C295" t="s">
-        <v>612</v>
+        <v>942</v>
       </c>
       <c r="D295" t="s">
-        <v>937</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -8424,13 +9744,13 @@
         <v>290</v>
       </c>
       <c r="B296" t="s">
-        <v>290</v>
+        <v>619</v>
       </c>
       <c r="C296" t="s">
-        <v>613</v>
+        <v>943</v>
       </c>
       <c r="D296" t="s">
-        <v>938</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -8438,13 +9758,13 @@
         <v>291</v>
       </c>
       <c r="B297" t="s">
-        <v>291</v>
+        <v>620</v>
       </c>
       <c r="C297" t="s">
-        <v>614</v>
+        <v>944</v>
       </c>
       <c r="D297" t="s">
-        <v>939</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -8452,13 +9772,13 @@
         <v>292</v>
       </c>
       <c r="B298" t="s">
-        <v>292</v>
+        <v>621</v>
       </c>
       <c r="C298" t="s">
-        <v>615</v>
+        <v>945</v>
       </c>
       <c r="D298" t="s">
-        <v>940</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -8466,13 +9786,13 @@
         <v>293</v>
       </c>
       <c r="B299" t="s">
-        <v>293</v>
+        <v>622</v>
       </c>
       <c r="C299" t="s">
-        <v>616</v>
+        <v>946</v>
       </c>
       <c r="D299" t="s">
-        <v>941</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -8480,13 +9800,13 @@
         <v>294</v>
       </c>
       <c r="B300" t="s">
-        <v>294</v>
+        <v>623</v>
       </c>
       <c r="C300" t="s">
-        <v>617</v>
+        <v>947</v>
       </c>
       <c r="D300" t="s">
-        <v>942</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -8494,13 +9814,13 @@
         <v>295</v>
       </c>
       <c r="B301" t="s">
-        <v>295</v>
+        <v>624</v>
       </c>
       <c r="C301" t="s">
-        <v>618</v>
+        <v>948</v>
       </c>
       <c r="D301" t="s">
-        <v>943</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -8508,13 +9828,13 @@
         <v>296</v>
       </c>
       <c r="B302" t="s">
-        <v>296</v>
+        <v>625</v>
       </c>
       <c r="C302" t="s">
-        <v>619</v>
+        <v>949</v>
       </c>
       <c r="D302" t="s">
-        <v>944</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -8522,13 +9842,13 @@
         <v>297</v>
       </c>
       <c r="B303" t="s">
-        <v>297</v>
+        <v>626</v>
       </c>
       <c r="C303" t="s">
-        <v>620</v>
+        <v>950</v>
       </c>
       <c r="D303" t="s">
-        <v>945</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -8536,13 +9856,13 @@
         <v>298</v>
       </c>
       <c r="B304" t="s">
-        <v>298</v>
+        <v>627</v>
       </c>
       <c r="C304" t="s">
-        <v>621</v>
+        <v>951</v>
       </c>
       <c r="D304" t="s">
-        <v>946</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -8550,13 +9870,13 @@
         <v>299</v>
       </c>
       <c r="B305" t="s">
-        <v>299</v>
+        <v>628</v>
       </c>
       <c r="C305" t="s">
-        <v>622</v>
+        <v>952</v>
       </c>
       <c r="D305" t="s">
-        <v>947</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -8564,13 +9884,13 @@
         <v>300</v>
       </c>
       <c r="B306" t="s">
-        <v>300</v>
+        <v>629</v>
       </c>
       <c r="C306" t="s">
-        <v>623</v>
+        <v>953</v>
       </c>
       <c r="D306" t="s">
-        <v>948</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -8578,13 +9898,13 @@
         <v>301</v>
       </c>
       <c r="B307" t="s">
-        <v>301</v>
+        <v>630</v>
       </c>
       <c r="C307" t="s">
-        <v>624</v>
+        <v>954</v>
       </c>
       <c r="D307" t="s">
-        <v>949</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -8592,13 +9912,13 @@
         <v>302</v>
       </c>
       <c r="B308" t="s">
-        <v>302</v>
+        <v>631</v>
       </c>
       <c r="C308" t="s">
-        <v>625</v>
+        <v>955</v>
       </c>
       <c r="D308" t="s">
-        <v>950</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -8606,13 +9926,13 @@
         <v>303</v>
       </c>
       <c r="B309" t="s">
-        <v>303</v>
+        <v>632</v>
       </c>
       <c r="C309" t="s">
-        <v>626</v>
+        <v>956</v>
       </c>
       <c r="D309" t="s">
-        <v>951</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -8620,13 +9940,13 @@
         <v>304</v>
       </c>
       <c r="B310" t="s">
-        <v>304</v>
+        <v>633</v>
       </c>
       <c r="C310" t="s">
-        <v>627</v>
+        <v>957</v>
       </c>
       <c r="D310" t="s">
-        <v>952</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -8634,13 +9954,13 @@
         <v>305</v>
       </c>
       <c r="B311" t="s">
-        <v>305</v>
+        <v>634</v>
       </c>
       <c r="C311" t="s">
-        <v>628</v>
+        <v>958</v>
       </c>
       <c r="D311" t="s">
-        <v>953</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -8648,13 +9968,13 @@
         <v>306</v>
       </c>
       <c r="B312" t="s">
-        <v>306</v>
+        <v>635</v>
       </c>
       <c r="C312" t="s">
-        <v>629</v>
+        <v>959</v>
       </c>
       <c r="D312" t="s">
-        <v>954</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -8662,13 +9982,13 @@
         <v>307</v>
       </c>
       <c r="B313" t="s">
-        <v>307</v>
+        <v>636</v>
       </c>
       <c r="C313" t="s">
-        <v>630</v>
+        <v>960</v>
       </c>
       <c r="D313" t="s">
-        <v>955</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -8676,13 +9996,13 @@
         <v>308</v>
       </c>
       <c r="B314" t="s">
-        <v>308</v>
+        <v>637</v>
       </c>
       <c r="C314" t="s">
-        <v>631</v>
+        <v>961</v>
       </c>
       <c r="D314" t="s">
-        <v>956</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -8690,13 +10010,13 @@
         <v>309</v>
       </c>
       <c r="B315" t="s">
-        <v>309</v>
+        <v>638</v>
       </c>
       <c r="C315" t="s">
-        <v>632</v>
+        <v>962</v>
       </c>
       <c r="D315" t="s">
-        <v>957</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -8704,13 +10024,13 @@
         <v>310</v>
       </c>
       <c r="B316" t="s">
-        <v>310</v>
+        <v>639</v>
       </c>
       <c r="C316" t="s">
-        <v>633</v>
+        <v>963</v>
       </c>
       <c r="D316" t="s">
-        <v>958</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -8718,13 +10038,13 @@
         <v>311</v>
       </c>
       <c r="B317" t="s">
-        <v>311</v>
+        <v>640</v>
       </c>
       <c r="C317" t="s">
-        <v>634</v>
+        <v>964</v>
       </c>
       <c r="D317" t="s">
-        <v>959</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -8732,13 +10052,13 @@
         <v>312</v>
       </c>
       <c r="B318" t="s">
-        <v>312</v>
+        <v>641</v>
       </c>
       <c r="C318" t="s">
-        <v>635</v>
+        <v>965</v>
       </c>
       <c r="D318" t="s">
-        <v>960</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -8746,13 +10066,13 @@
         <v>313</v>
       </c>
       <c r="B319" t="s">
-        <v>313</v>
+        <v>642</v>
       </c>
       <c r="C319" t="s">
-        <v>636</v>
+        <v>966</v>
       </c>
       <c r="D319" t="s">
-        <v>961</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -8760,13 +10080,13 @@
         <v>314</v>
       </c>
       <c r="B320" t="s">
-        <v>314</v>
+        <v>643</v>
       </c>
       <c r="C320" t="s">
-        <v>637</v>
+        <v>967</v>
       </c>
       <c r="D320" t="s">
-        <v>962</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -8774,13 +10094,13 @@
         <v>315</v>
       </c>
       <c r="B321" t="s">
-        <v>315</v>
+        <v>644</v>
       </c>
       <c r="C321" t="s">
-        <v>638</v>
+        <v>968</v>
       </c>
       <c r="D321" t="s">
-        <v>963</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -8788,13 +10108,13 @@
         <v>316</v>
       </c>
       <c r="B322" t="s">
-        <v>316</v>
+        <v>645</v>
       </c>
       <c r="C322" t="s">
-        <v>639</v>
+        <v>969</v>
       </c>
       <c r="D322" t="s">
-        <v>964</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -8802,13 +10122,13 @@
         <v>246</v>
       </c>
       <c r="B323" t="s">
-        <v>246</v>
+        <v>575</v>
       </c>
       <c r="C323" t="s">
-        <v>570</v>
+        <v>900</v>
       </c>
       <c r="D323" t="s">
-        <v>894</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -8816,13 +10136,13 @@
         <v>317</v>
       </c>
       <c r="B324" t="s">
-        <v>317</v>
+        <v>646</v>
       </c>
       <c r="C324" t="s">
-        <v>640</v>
+        <v>970</v>
       </c>
       <c r="D324" t="s">
-        <v>965</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -8830,13 +10150,13 @@
         <v>308</v>
       </c>
       <c r="B325" t="s">
-        <v>308</v>
+        <v>647</v>
       </c>
       <c r="C325" t="s">
-        <v>631</v>
+        <v>961</v>
       </c>
       <c r="D325" t="s">
-        <v>956</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -8844,13 +10164,13 @@
         <v>318</v>
       </c>
       <c r="B326" t="s">
-        <v>318</v>
+        <v>648</v>
       </c>
       <c r="C326" t="s">
-        <v>641</v>
+        <v>971</v>
       </c>
       <c r="D326" t="s">
-        <v>966</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -8858,13 +10178,13 @@
         <v>319</v>
       </c>
       <c r="B327" t="s">
-        <v>319</v>
+        <v>649</v>
       </c>
       <c r="C327" t="s">
-        <v>642</v>
+        <v>972</v>
       </c>
       <c r="D327" t="s">
-        <v>967</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -8872,13 +10192,13 @@
         <v>320</v>
       </c>
       <c r="B328" t="s">
-        <v>320</v>
+        <v>650</v>
       </c>
       <c r="C328" t="s">
-        <v>643</v>
+        <v>973</v>
       </c>
       <c r="D328" t="s">
-        <v>968</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -8886,13 +10206,13 @@
         <v>321</v>
       </c>
       <c r="B329" t="s">
-        <v>321</v>
+        <v>651</v>
       </c>
       <c r="C329" t="s">
-        <v>644</v>
+        <v>974</v>
       </c>
       <c r="D329" t="s">
-        <v>969</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -8900,13 +10220,13 @@
         <v>322</v>
       </c>
       <c r="B330" t="s">
-        <v>322</v>
+        <v>652</v>
       </c>
       <c r="C330" t="s">
-        <v>645</v>
+        <v>975</v>
       </c>
       <c r="D330" t="s">
-        <v>970</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -8914,13 +10234,13 @@
         <v>323</v>
       </c>
       <c r="B331" t="s">
-        <v>323</v>
+        <v>653</v>
       </c>
       <c r="C331" t="s">
-        <v>646</v>
+        <v>976</v>
       </c>
       <c r="D331" t="s">
-        <v>971</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -8928,13 +10248,13 @@
         <v>324</v>
       </c>
       <c r="B332" t="s">
-        <v>324</v>
+        <v>654</v>
       </c>
       <c r="C332" t="s">
-        <v>647</v>
+        <v>977</v>
       </c>
       <c r="D332" t="s">
-        <v>972</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -8942,13 +10262,13 @@
         <v>325</v>
       </c>
       <c r="B333" t="s">
-        <v>325</v>
+        <v>655</v>
       </c>
       <c r="C333" t="s">
-        <v>648</v>
+        <v>978</v>
       </c>
       <c r="D333" t="s">
-        <v>973</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -8956,13 +10276,13 @@
         <v>326</v>
       </c>
       <c r="B334" t="s">
-        <v>326</v>
+        <v>656</v>
       </c>
       <c r="C334" t="s">
-        <v>649</v>
+        <v>979</v>
       </c>
       <c r="D334" t="s">
-        <v>974</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -8970,13 +10290,13 @@
         <v>327</v>
       </c>
       <c r="B335" t="s">
-        <v>327</v>
+        <v>657</v>
       </c>
       <c r="C335" t="s">
-        <v>650</v>
+        <v>980</v>
       </c>
       <c r="D335" t="s">
-        <v>975</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -8984,13 +10304,13 @@
         <v>328</v>
       </c>
       <c r="B336" t="s">
-        <v>328</v>
+        <v>658</v>
       </c>
       <c r="C336" t="s">
-        <v>651</v>
+        <v>981</v>
       </c>
       <c r="D336" t="s">
-        <v>976</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -8998,13 +10318,13 @@
         <v>246</v>
       </c>
       <c r="B337" t="s">
-        <v>246</v>
+        <v>575</v>
       </c>
       <c r="C337" t="s">
-        <v>570</v>
+        <v>900</v>
       </c>
       <c r="D337" t="s">
-        <v>894</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -9012,13 +10332,13 @@
         <v>329</v>
       </c>
       <c r="B338" t="s">
-        <v>329</v>
+        <v>659</v>
       </c>
       <c r="C338" t="s">
-        <v>652</v>
+        <v>982</v>
       </c>
       <c r="D338" t="s">
-        <v>977</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -9026,13 +10346,13 @@
         <v>330</v>
       </c>
       <c r="B339" t="s">
-        <v>330</v>
+        <v>660</v>
       </c>
       <c r="C339" t="s">
-        <v>653</v>
+        <v>983</v>
       </c>
       <c r="D339" t="s">
-        <v>978</v>
+        <v>1308</v>
       </c>
     </row>
   </sheetData>

--- a/story/Main Story and Others 主线剧情等/Operator Record 干员密录/story_sidero_1_1.xlsx
+++ b/story/Main Story and Others 主线剧情等/Operator Record 干员密录/story_sidero_1_1.xlsx
@@ -4484,7 +4484,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="시데로카"]  벌컨이라…… 아마 정도는 아닐 거야.
+    <t xml:space="preserve">[name="시데로카"]  벌컨이라…… 아마 그 정도는 아닐 거야.
 </t>
   </si>
   <si>
@@ -4592,7 +4592,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="버블"]  힘들어, 숙소로 돌아가서 잘래…….
+    <t xml:space="preserve">[name="버블"]  힘들어, 숙소로 돌아가서 잘래……
 </t>
   </si>
   <si>
